--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.0752200961742</v>
+        <v>212.7901755230539</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.3902222726708</v>
+        <v>291.1489057905052</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.3564887786501</v>
+        <v>263.3620628520008</v>
       </c>
       <c r="AD2" t="n">
-        <v>161075.2200961742</v>
+        <v>212790.1755230539</v>
       </c>
       <c r="AE2" t="n">
-        <v>220390.2222726708</v>
+        <v>291148.9057905052</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50237309113132e-06</v>
+        <v>3.607582236582498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>199356.4887786501</v>
+        <v>263362.0628520008</v>
       </c>
     </row>
     <row r="3">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.8190893842416</v>
+        <v>188.9860178702095</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.5161111796299</v>
+        <v>258.5790071245812</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.4745735513233</v>
+        <v>233.9005896026024</v>
       </c>
       <c r="AD3" t="n">
-        <v>145819.0893842416</v>
+        <v>188986.0178702095</v>
       </c>
       <c r="AE3" t="n">
-        <v>199516.1111796299</v>
+        <v>258579.0071245812</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.711326274335845e-06</v>
+        <v>3.908822605046185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>180474.5735513234</v>
+        <v>233900.5896026024</v>
       </c>
     </row>
     <row r="4">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.0407551156076</v>
+        <v>184.7556210339362</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.0322304929724</v>
+        <v>252.7907915412583</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.6593298986142</v>
+        <v>228.6647931907384</v>
       </c>
       <c r="AD4" t="n">
-        <v>133040.7551156076</v>
+        <v>184755.6210339362</v>
       </c>
       <c r="AE4" t="n">
-        <v>182032.2304929724</v>
+        <v>252790.7915412583</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.849904809711769e-06</v>
+        <v>4.108606348072202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>164659.3298986142</v>
+        <v>228664.7931907384</v>
       </c>
     </row>
     <row r="5">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.5389288294159</v>
+        <v>172.6205164608122</v>
       </c>
       <c r="AB5" t="n">
-        <v>177.240877278535</v>
+        <v>236.1870061012887</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.3252567102548</v>
+        <v>213.645649729595</v>
       </c>
       <c r="AD5" t="n">
-        <v>129538.9288294159</v>
+        <v>172620.5164608122</v>
       </c>
       <c r="AE5" t="n">
-        <v>177240.877278535</v>
+        <v>236187.0061012887</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.983464920781507e-06</v>
+        <v>4.301155207360543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>160325.2567102548</v>
+        <v>213645.649729595</v>
       </c>
     </row>
     <row r="6">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.8886236612109</v>
+        <v>161.0554626386277</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.3004157722154</v>
+        <v>220.3631892476183</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.9061304775149</v>
+        <v>199.3320357475675</v>
       </c>
       <c r="AD6" t="n">
-        <v>117888.6236612109</v>
+        <v>161055.4626386277</v>
       </c>
       <c r="AE6" t="n">
-        <v>161300.4157722153</v>
+        <v>220363.1892476183</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.086937827522533e-06</v>
+        <v>4.45032841484485e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH6" t="n">
-        <v>145906.1304775149</v>
+        <v>199332.0357475675</v>
       </c>
     </row>
     <row r="7">
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.0133121774654</v>
+        <v>160.1801511548823</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.1027759841382</v>
+        <v>219.1655494595411</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.8227917499134</v>
+        <v>198.248697019966</v>
       </c>
       <c r="AD7" t="n">
-        <v>117013.3121774654</v>
+        <v>160180.1511548823</v>
       </c>
       <c r="AE7" t="n">
-        <v>160102.7759841382</v>
+        <v>219165.5494595411</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.112776877322288e-06</v>
+        <v>4.487579653438383e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>144822.7917499134</v>
+        <v>198248.697019966</v>
       </c>
     </row>
     <row r="8">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.3280258717907</v>
+        <v>159.4948648492076</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.1651370280163</v>
+        <v>218.2279105034193</v>
       </c>
       <c r="AC8" t="n">
-        <v>143.9746397397791</v>
+        <v>197.4005450098316</v>
       </c>
       <c r="AD8" t="n">
-        <v>116328.0258717907</v>
+        <v>159494.8648492076</v>
       </c>
       <c r="AE8" t="n">
-        <v>159165.1370280164</v>
+        <v>218227.9105034193</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.137075387567586e-06</v>
+        <v>4.522609950977558e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>143974.6397397791</v>
+        <v>197400.5450098316</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.94225908986</v>
+        <v>319.4900876499694</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.8772932101765</v>
+        <v>437.1404328305877</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.6307585600572</v>
+        <v>395.4203634516865</v>
       </c>
       <c r="AD2" t="n">
-        <v>246942.25908986</v>
+        <v>319490.0876499694</v>
       </c>
       <c r="AE2" t="n">
-        <v>337877.2932101765</v>
+        <v>437140.4328305877</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.753558185015001e-06</v>
+        <v>2.458141741314404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>305630.7585600573</v>
+        <v>395420.3634516865</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.4730839765553</v>
+        <v>274.9417775483984</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.3468030306086</v>
+        <v>376.1874696168826</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.7319502502411</v>
+        <v>340.2846654990763</v>
       </c>
       <c r="AD3" t="n">
-        <v>211473.0839765553</v>
+        <v>274941.7775483984</v>
       </c>
       <c r="AE3" t="n">
-        <v>289346.8030306086</v>
+        <v>376187.4696168826</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.986991773732065e-06</v>
+        <v>2.785369462158651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.30989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>261731.9502502411</v>
+        <v>340284.6654990762</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.7665730806349</v>
+        <v>247.2414725187805</v>
       </c>
       <c r="AB4" t="n">
-        <v>263.7517295498073</v>
+        <v>338.28669022399</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.5796346595281</v>
+        <v>306.0010832974649</v>
       </c>
       <c r="AD4" t="n">
-        <v>192766.5730806349</v>
+        <v>247241.4725187804</v>
       </c>
       <c r="AE4" t="n">
-        <v>263751.7295498073</v>
+        <v>338286.69022399</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155848402786265e-06</v>
+        <v>3.022073058151515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>238579.6346595281</v>
+        <v>306001.0832974649</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.8856721235971</v>
+        <v>232.275230707171</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.3910243613815</v>
+        <v>317.8092179133666</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.1621265978499</v>
+        <v>287.4779522038479</v>
       </c>
       <c r="AD5" t="n">
-        <v>177885.6721235971</v>
+        <v>232275.230707171</v>
       </c>
       <c r="AE5" t="n">
-        <v>243391.0243613815</v>
+        <v>317809.2179133666</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.276376045795852e-06</v>
+        <v>3.191028974639437e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.48697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>220162.1265978499</v>
+        <v>287477.9522038479</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.913812312738</v>
+        <v>228.3033708963119</v>
       </c>
       <c r="AB6" t="n">
-        <v>237.9565505420788</v>
+        <v>312.3747440940639</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.2463113325279</v>
+        <v>282.5621369385259</v>
       </c>
       <c r="AD6" t="n">
-        <v>173913.812312738</v>
+        <v>228303.3708963119</v>
       </c>
       <c r="AE6" t="n">
-        <v>237956.5505420789</v>
+        <v>312374.7440940639</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.368906508457859e-06</v>
+        <v>3.32073838180728e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>215246.3113325279</v>
+        <v>282562.1369385259</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.4284102418483</v>
+        <v>215.9032201714428</v>
       </c>
       <c r="AB7" t="n">
-        <v>220.8734726116314</v>
+        <v>295.4083108162658</v>
       </c>
       <c r="AC7" t="n">
-        <v>199.7936183835065</v>
+        <v>267.2149562402167</v>
       </c>
       <c r="AD7" t="n">
-        <v>161428.4102418483</v>
+        <v>215903.2201714428</v>
       </c>
       <c r="AE7" t="n">
-        <v>220873.4726116314</v>
+        <v>295408.3108162658</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.450867052798315e-06</v>
+        <v>3.435630854099212e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>199793.6183835065</v>
+        <v>267214.9562402167</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>158.8008076086892</v>
+        <v>213.1050253376915</v>
       </c>
       <c r="AB8" t="n">
-        <v>217.2782707672982</v>
+        <v>291.5796971970856</v>
       </c>
       <c r="AC8" t="n">
-        <v>196.5415375572978</v>
+        <v>263.751740131357</v>
       </c>
       <c r="AD8" t="n">
-        <v>158800.8076086892</v>
+        <v>213105.0253376915</v>
       </c>
       <c r="AE8" t="n">
-        <v>217278.2707672982</v>
+        <v>291579.6971970857</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.517758911928296e-06</v>
+        <v>3.529400010142427e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.2890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>196541.5375572978</v>
+        <v>263751.740131357</v>
       </c>
     </row>
     <row r="9">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.2658331728222</v>
+        <v>200.655302247845</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.1273657401104</v>
+        <v>274.5454368225471</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.027490834453</v>
+        <v>248.3432056592244</v>
       </c>
       <c r="AD9" t="n">
-        <v>146265.8331728222</v>
+        <v>200655.302247845</v>
       </c>
       <c r="AE9" t="n">
-        <v>200127.3657401104</v>
+        <v>274545.4368225471</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.603104450772556e-06</v>
+        <v>3.649037575214868e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>181027.490834453</v>
+        <v>248343.2056592244</v>
       </c>
     </row>
     <row r="10">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>156.7409506488076</v>
+        <v>202.1367150986873</v>
       </c>
       <c r="AB10" t="n">
-        <v>214.459883600314</v>
+        <v>276.572371240391</v>
       </c>
       <c r="AC10" t="n">
-        <v>193.9921333058985</v>
+        <v>250.1766923010502</v>
       </c>
       <c r="AD10" t="n">
-        <v>156740.9506488076</v>
+        <v>202136.7150986873</v>
       </c>
       <c r="AE10" t="n">
-        <v>214459.883600314</v>
+        <v>276572.371240391</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.582510580984905e-06</v>
+        <v>3.620169043008288e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>193992.1333058985</v>
+        <v>250176.6923010502</v>
       </c>
     </row>
     <row r="11">
@@ -7274,28 +7274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>144.6004502295137</v>
+        <v>198.9899193045365</v>
       </c>
       <c r="AB11" t="n">
-        <v>197.8487153255668</v>
+        <v>272.2667864080036</v>
       </c>
       <c r="AC11" t="n">
-        <v>178.9663116173667</v>
+        <v>246.2820264421382</v>
       </c>
       <c r="AD11" t="n">
-        <v>144600.4502295137</v>
+        <v>198989.9193045365</v>
       </c>
       <c r="AE11" t="n">
-        <v>197848.7153255668</v>
+        <v>272266.7864080035</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.652023081021056e-06</v>
+        <v>3.717611819268672e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>178966.3116173667</v>
+        <v>246282.0264421382</v>
       </c>
     </row>
     <row r="12">
@@ -7380,28 +7380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>143.5998361734014</v>
+        <v>197.9893052484242</v>
       </c>
       <c r="AB12" t="n">
-        <v>196.479631030018</v>
+        <v>270.8977021124547</v>
       </c>
       <c r="AC12" t="n">
-        <v>177.7278908054628</v>
+        <v>245.0436056302342</v>
       </c>
       <c r="AD12" t="n">
-        <v>143599.8361734014</v>
+        <v>197989.3052484242</v>
       </c>
       <c r="AE12" t="n">
-        <v>196479.631030018</v>
+        <v>270897.7021124547</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.675128398343785e-06</v>
+        <v>3.75000090418337e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH12" t="n">
-        <v>177727.8908054628</v>
+        <v>245043.6056302342</v>
       </c>
     </row>
     <row r="13">
@@ -7486,28 +7486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>141.6228274859952</v>
+        <v>186.9332510813034</v>
       </c>
       <c r="AB13" t="n">
-        <v>193.7746005244425</v>
+        <v>255.7703210423219</v>
       </c>
       <c r="AC13" t="n">
-        <v>175.2810246148045</v>
+        <v>231.3599605780174</v>
       </c>
       <c r="AD13" t="n">
-        <v>141622.8274859952</v>
+        <v>186933.2510813033</v>
       </c>
       <c r="AE13" t="n">
-        <v>193774.6005244426</v>
+        <v>255770.3210423219</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.728786020897609e-06</v>
+        <v>3.825218278129887e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>175281.0246148045</v>
+        <v>231359.9605780174</v>
       </c>
     </row>
     <row r="14">
@@ -7592,28 +7592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>140.2835389581174</v>
+        <v>185.5939625534256</v>
       </c>
       <c r="AB14" t="n">
-        <v>191.9421268753613</v>
+        <v>253.9378473932407</v>
       </c>
       <c r="AC14" t="n">
-        <v>173.6234396788981</v>
+        <v>229.702375642111</v>
       </c>
       <c r="AD14" t="n">
-        <v>140283.5389581175</v>
+        <v>185593.9625534256</v>
       </c>
       <c r="AE14" t="n">
-        <v>191942.1268753613</v>
+        <v>253937.8473932407</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.757416522797513e-06</v>
+        <v>3.865352579002448e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH14" t="n">
-        <v>173623.4396788981</v>
+        <v>229702.375642111</v>
       </c>
     </row>
     <row r="15">
@@ -7698,28 +7698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>139.1463576318098</v>
+        <v>184.4567812271179</v>
       </c>
       <c r="AB15" t="n">
-        <v>190.3861852158086</v>
+        <v>252.3819057336879</v>
       </c>
       <c r="AC15" t="n">
-        <v>172.2159949075547</v>
+        <v>228.2949308707676</v>
       </c>
       <c r="AD15" t="n">
-        <v>139146.3576318098</v>
+        <v>184456.7812271179</v>
       </c>
       <c r="AE15" t="n">
-        <v>190386.1852158086</v>
+        <v>252381.9057336879</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.782203418035035e-06</v>
+        <v>3.900098903556496e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>172215.9949075546</v>
+        <v>228294.9308707676</v>
       </c>
     </row>
     <row r="16">
@@ -7804,28 +7804,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>138.7753530364863</v>
+        <v>184.0857766317945</v>
       </c>
       <c r="AB16" t="n">
-        <v>189.8785603609197</v>
+        <v>251.8742808787991</v>
       </c>
       <c r="AC16" t="n">
-        <v>171.7568170563603</v>
+        <v>227.8357530195732</v>
       </c>
       <c r="AD16" t="n">
-        <v>138775.3530364863</v>
+        <v>184085.7766317945</v>
       </c>
       <c r="AE16" t="n">
-        <v>189878.5603609197</v>
+        <v>251874.2808787991</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.781504580460056e-06</v>
+        <v>3.899119271498585e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>171756.8170563603</v>
+        <v>227835.7530195733</v>
       </c>
     </row>
     <row r="17">
@@ -7910,28 +7910,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>138.7501232886351</v>
+        <v>184.0605468839432</v>
       </c>
       <c r="AB17" t="n">
-        <v>189.8440399068517</v>
+        <v>251.839760424731</v>
       </c>
       <c r="AC17" t="n">
-        <v>171.7255911859787</v>
+        <v>227.8045271491917</v>
       </c>
       <c r="AD17" t="n">
-        <v>138750.123288635</v>
+        <v>184060.5468839432</v>
       </c>
       <c r="AE17" t="n">
-        <v>189844.0399068517</v>
+        <v>251839.760424731</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.775913879860228e-06</v>
+        <v>3.891282215035293e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>171725.5911859787</v>
+        <v>227804.5271491917</v>
       </c>
     </row>
     <row r="18">
@@ -8016,28 +8016,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>138.8015882198176</v>
+        <v>184.1120118151257</v>
       </c>
       <c r="AB18" t="n">
-        <v>189.9144564961681</v>
+        <v>251.9101770140475</v>
       </c>
       <c r="AC18" t="n">
-        <v>171.7892873148412</v>
+        <v>227.8682232780541</v>
       </c>
       <c r="AD18" t="n">
-        <v>138801.5882198176</v>
+        <v>184112.0118151257</v>
       </c>
       <c r="AE18" t="n">
-        <v>189914.4564961681</v>
+        <v>251910.1770140475</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.774931139520414e-06</v>
+        <v>3.889904607453855e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>171789.2873148412</v>
+        <v>227868.2232780541</v>
       </c>
     </row>
   </sheetData>
@@ -8313,28 +8313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.8281727759556</v>
+        <v>171.4672283671905</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.6906806716471</v>
+        <v>234.6090264521165</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.781956060231</v>
+        <v>212.2182702434309</v>
       </c>
       <c r="AD2" t="n">
-        <v>121828.1727759556</v>
+        <v>171467.2283671905</v>
       </c>
       <c r="AE2" t="n">
-        <v>166690.6806716471</v>
+        <v>234609.0264521165</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.00752163799191e-06</v>
+        <v>5.013359385275135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>150781.956060231</v>
+        <v>212218.2702434309</v>
       </c>
     </row>
   </sheetData>
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3144201619883</v>
+        <v>142.0271250410671</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.9911034592233</v>
+        <v>194.3277782756409</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6305490238604</v>
+        <v>175.7814078578185</v>
       </c>
       <c r="AD2" t="n">
-        <v>102314.4201619883</v>
+        <v>142027.1250410671</v>
       </c>
       <c r="AE2" t="n">
-        <v>139991.1034592233</v>
+        <v>194327.7782756409</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.546635302399255e-06</v>
+        <v>5.397647751553876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>126630.5490238604</v>
+        <v>175781.4078578185</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.9932929414853</v>
+        <v>217.0074196981737</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.7511023927973</v>
+        <v>296.9191253225834</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.2057340241559</v>
+        <v>268.5815807304933</v>
       </c>
       <c r="AD2" t="n">
-        <v>164993.2929414853</v>
+        <v>217007.4196981737</v>
       </c>
       <c r="AE2" t="n">
-        <v>225751.1023927974</v>
+        <v>296919.1253225834</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.418424569600815e-06</v>
+        <v>3.474833561728538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>204205.7340241559</v>
+        <v>268581.5807304933</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.4647099641292</v>
+        <v>201.5640880668383</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.5042100904585</v>
+        <v>275.7888776728938</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.9866153029449</v>
+        <v>249.4679742599945</v>
       </c>
       <c r="AD3" t="n">
-        <v>149464.7099641292</v>
+        <v>201564.0880668383</v>
       </c>
       <c r="AE3" t="n">
-        <v>204504.2100904585</v>
+        <v>275788.8776728938</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.616006762332167e-06</v>
+        <v>3.758723017340602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>184986.6153029449</v>
+        <v>249467.9742599945</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.8230312138898</v>
+        <v>187.8370684620272</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.8390633959988</v>
+        <v>257.0069638562365</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.1028440123006</v>
+        <v>232.4785799374114</v>
       </c>
       <c r="AD4" t="n">
-        <v>135823.0312138898</v>
+        <v>187837.0684620272</v>
       </c>
       <c r="AE4" t="n">
-        <v>185839.0633959988</v>
+        <v>257006.9638562365</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.775601288465697e-06</v>
+        <v>3.988031147371917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>168102.8440123005</v>
+        <v>232478.5799374114</v>
       </c>
     </row>
     <row r="5">
@@ -9225,28 +9225,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.7510344244731</v>
+        <v>176.0819314973767</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.6358218617876</v>
+        <v>240.9230668611677</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.3007539508266</v>
+        <v>217.9297074976557</v>
       </c>
       <c r="AD5" t="n">
-        <v>132751.0344244731</v>
+        <v>176081.9314973767</v>
       </c>
       <c r="AE5" t="n">
-        <v>181635.8218617876</v>
+        <v>240923.0668611677</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.88249950880042e-06</v>
+        <v>4.141624328807988e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>164300.7539508266</v>
+        <v>217929.7074976557</v>
       </c>
     </row>
     <row r="6">
@@ -9331,28 +9331,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.1752805864631</v>
+        <v>172.1039769800288</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.4291206575276</v>
+        <v>235.4802539955676</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.7362361597389</v>
+        <v>213.0063490529109</v>
       </c>
       <c r="AD6" t="n">
-        <v>120175.2805864631</v>
+        <v>172103.9769800288</v>
       </c>
       <c r="AE6" t="n">
-        <v>164429.1206575276</v>
+        <v>235480.2539955676</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.019417251031958e-06</v>
+        <v>4.338350069971283e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>148736.2361597389</v>
+        <v>213006.3490529109</v>
       </c>
     </row>
     <row r="7">
@@ -9437,28 +9437,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.7633518152752</v>
+        <v>171.692048208841</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.8655015397739</v>
+        <v>234.9166348778139</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.226408059539</v>
+        <v>212.4965209527111</v>
       </c>
       <c r="AD7" t="n">
-        <v>119763.3518152752</v>
+        <v>171692.048208841</v>
       </c>
       <c r="AE7" t="n">
-        <v>163865.5015397739</v>
+        <v>234916.6348778139</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.028752025202032e-06</v>
+        <v>4.351762432293869e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.9609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>148226.408059539</v>
+        <v>212496.5209527111</v>
       </c>
     </row>
     <row r="8">
@@ -9543,28 +9543,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.1235469728721</v>
+        <v>161.5396953917963</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.6218482113152</v>
+        <v>221.0257378633446</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.1968858557605</v>
+        <v>199.9313516533018</v>
       </c>
       <c r="AD8" t="n">
-        <v>118123.5469728722</v>
+        <v>161539.6953917963</v>
       </c>
       <c r="AE8" t="n">
-        <v>161621.8482113152</v>
+        <v>221025.7378633446</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.082259043397744e-06</v>
+        <v>4.428642226252119e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>146196.8858557605</v>
+        <v>199931.3516533019</v>
       </c>
     </row>
     <row r="9">
@@ -9649,28 +9649,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.4779420565353</v>
+        <v>160.8940904754594</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.7385030827048</v>
+        <v>220.1423927347341</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.3978459464416</v>
+        <v>199.1323117439831</v>
       </c>
       <c r="AD9" t="n">
-        <v>117477.9420565353</v>
+        <v>160894.0904754594</v>
       </c>
       <c r="AE9" t="n">
-        <v>160738.5030827048</v>
+        <v>220142.3927347341</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.108804083593539e-06</v>
+        <v>4.466782591566472e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>145397.8459464416</v>
+        <v>199132.311743983</v>
       </c>
     </row>
   </sheetData>
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4593804664627</v>
+        <v>148.2904862316182</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.030665127431</v>
+        <v>202.8975853765427</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.9982648065435</v>
+        <v>183.5333245968127</v>
       </c>
       <c r="AD2" t="n">
-        <v>107459.3804664628</v>
+        <v>148290.4862316182</v>
       </c>
       <c r="AE2" t="n">
-        <v>147030.665127431</v>
+        <v>202897.5853765426</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.387330586924593e-06</v>
+        <v>5.056982057405349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.674479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>132998.2648065435</v>
+        <v>183533.3245968127</v>
       </c>
     </row>
     <row r="3">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.153369594795</v>
+        <v>146.8138831593582</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.2437234356828</v>
+        <v>200.8772319099477</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.3818663218667</v>
+        <v>181.7057908294849</v>
       </c>
       <c r="AD3" t="n">
-        <v>106153.369594795</v>
+        <v>146813.8831593582</v>
       </c>
       <c r="AE3" t="n">
-        <v>145243.7234356828</v>
+        <v>200877.2319099476</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.452936455037172e-06</v>
+        <v>5.154925759501172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>131381.8663218667</v>
+        <v>181705.7908294849</v>
       </c>
     </row>
     <row r="4">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.2111503636907</v>
+        <v>146.8716639282539</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.3227816327935</v>
+        <v>200.9562901070583</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.4533793156041</v>
+        <v>181.7773038232222</v>
       </c>
       <c r="AD4" t="n">
-        <v>106211.1503636907</v>
+        <v>146871.6639282539</v>
       </c>
       <c r="AE4" t="n">
-        <v>145322.7816327935</v>
+        <v>200956.2901070583</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.451351650707766e-06</v>
+        <v>5.152559788169871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>131453.379315604</v>
+        <v>181777.3038232222</v>
       </c>
     </row>
   </sheetData>
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.7117093820426</v>
+        <v>282.2759866796316</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.3050567209204</v>
+        <v>386.2224581127069</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.7896267462491</v>
+        <v>349.3619287770539</v>
       </c>
       <c r="AD2" t="n">
-        <v>210711.7093820426</v>
+        <v>282275.9866796316</v>
       </c>
       <c r="AE2" t="n">
-        <v>288305.0567209204</v>
+        <v>386222.458112707</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.95558738974912e-06</v>
+        <v>2.761403649902395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>260789.6267462491</v>
+        <v>349361.9287770539</v>
       </c>
     </row>
     <row r="3">
@@ -10561,28 +10561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.1961866034546</v>
+        <v>251.7190102859999</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.8665692573971</v>
+        <v>344.4130549321216</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.1607072090584</v>
+        <v>311.5427563562611</v>
       </c>
       <c r="AD3" t="n">
-        <v>189196.1866034546</v>
+        <v>251719.0102859999</v>
       </c>
       <c r="AE3" t="n">
-        <v>258866.5692573971</v>
+        <v>344413.0549321215</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.176076494017592e-06</v>
+        <v>3.072747147248622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>234160.7072090585</v>
+        <v>311542.7563562611</v>
       </c>
     </row>
     <row r="4">
@@ -10667,28 +10667,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.8793257397897</v>
+        <v>226.5312880078869</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.541120374645</v>
+        <v>309.9501021073426</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.9659678337048</v>
+        <v>280.3688993800101</v>
       </c>
       <c r="AD4" t="n">
-        <v>172879.3257397897</v>
+        <v>226531.2880078869</v>
       </c>
       <c r="AE4" t="n">
-        <v>236541.120374645</v>
+        <v>309950.1021073426</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.338514065438935e-06</v>
+        <v>3.302118488542515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>213965.9678337048</v>
+        <v>280368.8993800101</v>
       </c>
     </row>
     <row r="5">
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.6526859396953</v>
+        <v>212.3898995538131</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.0756041651139</v>
+        <v>290.6012305504607</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.3582131711816</v>
+        <v>262.866656968199</v>
       </c>
       <c r="AD5" t="n">
-        <v>158652.6859396953</v>
+        <v>212389.8995538131</v>
       </c>
       <c r="AE5" t="n">
-        <v>217075.6041651139</v>
+        <v>290601.2305504608</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.470758614414318e-06</v>
+        <v>3.488855518109456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>196358.2131711816</v>
+        <v>262866.6569681991</v>
       </c>
     </row>
     <row r="6">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.5808590785079</v>
+        <v>209.1474804920335</v>
       </c>
       <c r="AB6" t="n">
-        <v>212.8725951342029</v>
+        <v>286.1648097447029</v>
       </c>
       <c r="AC6" t="n">
-        <v>192.5563334232191</v>
+        <v>258.8536419375856</v>
       </c>
       <c r="AD6" t="n">
-        <v>155580.8590785079</v>
+        <v>209147.4804920335</v>
       </c>
       <c r="AE6" t="n">
-        <v>212872.5951342029</v>
+        <v>286164.8097447029</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.552310901845674e-06</v>
+        <v>3.604012112670912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.34114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>192556.3334232192</v>
+        <v>258853.6419375855</v>
       </c>
     </row>
     <row r="7">
@@ -10985,28 +10985,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.5914468752686</v>
+        <v>197.2433196348148</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.4681524222031</v>
+        <v>269.8770116853523</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.7175076998674</v>
+        <v>244.1203284649461</v>
       </c>
       <c r="AD7" t="n">
-        <v>143591.4468752687</v>
+        <v>197243.3196348148</v>
       </c>
       <c r="AE7" t="n">
-        <v>196468.1524222031</v>
+        <v>269877.0116853523</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.640288655762216e-06</v>
+        <v>3.728241841318589e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>177717.5076998674</v>
+        <v>244120.3284649461</v>
       </c>
     </row>
     <row r="8">
@@ -11091,28 +11091,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.3592854277562</v>
+        <v>194.0111581873024</v>
       </c>
       <c r="AB8" t="n">
-        <v>192.0457665368195</v>
+        <v>265.4546257999687</v>
       </c>
       <c r="AC8" t="n">
-        <v>173.7171881165258</v>
+        <v>240.1200088816045</v>
       </c>
       <c r="AD8" t="n">
-        <v>140359.2854277562</v>
+        <v>194011.1581873024</v>
       </c>
       <c r="AE8" t="n">
-        <v>192045.7665368195</v>
+        <v>265454.6257999687</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.728310876574849e-06</v>
+        <v>3.852534359821534e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>173717.1881165259</v>
+        <v>240120.0088816045</v>
       </c>
     </row>
     <row r="9">
@@ -11197,28 +11197,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.0073737147297</v>
+        <v>194.6592464742758</v>
       </c>
       <c r="AB9" t="n">
-        <v>192.9325095226934</v>
+        <v>266.3413687858427</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.5193015963799</v>
+        <v>240.9221223614585</v>
       </c>
       <c r="AD9" t="n">
-        <v>141007.3737147297</v>
+        <v>194659.2464742759</v>
       </c>
       <c r="AE9" t="n">
-        <v>192932.5095226934</v>
+        <v>266341.3687858427</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.71341446638428e-06</v>
+        <v>3.831499758306765e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>174519.3015963799</v>
+        <v>240922.1223614585</v>
       </c>
     </row>
     <row r="10">
@@ -11303,28 +11303,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.6996350248951</v>
+        <v>183.3953950239727</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.7749596370177</v>
+        <v>250.9296703054908</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.663103840143</v>
+        <v>226.9812947536119</v>
       </c>
       <c r="AD10" t="n">
-        <v>138699.6350248951</v>
+        <v>183395.3950239727</v>
       </c>
       <c r="AE10" t="n">
-        <v>189774.9596370177</v>
+        <v>250929.6703054908</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.772066302328641e-06</v>
+        <v>3.914319577405216e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>171663.103840143</v>
+        <v>226981.2947536119</v>
       </c>
     </row>
     <row r="11">
@@ -11409,28 +11409,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>136.9045098669998</v>
+        <v>181.6002698660774</v>
       </c>
       <c r="AB11" t="n">
-        <v>187.3187902006539</v>
+        <v>248.473500869127</v>
       </c>
       <c r="AC11" t="n">
-        <v>169.4413477675295</v>
+        <v>224.7595386809985</v>
       </c>
       <c r="AD11" t="n">
-        <v>136904.5098669998</v>
+        <v>181600.2698660773</v>
       </c>
       <c r="AE11" t="n">
-        <v>187318.7902006539</v>
+        <v>248473.500869127</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.826293682111923e-06</v>
+        <v>3.990891805904506e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>169441.3477675295</v>
+        <v>224759.5386809985</v>
       </c>
     </row>
     <row r="12">
@@ -11515,28 +11515,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.3980875623238</v>
+        <v>180.0938475614014</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.2576367447356</v>
+        <v>246.4123474132087</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.5769079045963</v>
+        <v>222.8950988180653</v>
       </c>
       <c r="AD12" t="n">
-        <v>135398.0875623238</v>
+        <v>180093.8475614014</v>
       </c>
       <c r="AE12" t="n">
-        <v>185257.6367447356</v>
+        <v>246412.3474132087</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.85481919595446e-06</v>
+        <v>4.031171498058907e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>167576.9079045963</v>
+        <v>222895.0988180653</v>
       </c>
     </row>
     <row r="13">
@@ -11621,28 +11621,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>134.6715818641293</v>
+        <v>179.3673418632069</v>
       </c>
       <c r="AB13" t="n">
-        <v>184.2635995972971</v>
+        <v>245.4183102657701</v>
       </c>
       <c r="AC13" t="n">
-        <v>166.6777402673691</v>
+        <v>221.9959311808381</v>
       </c>
       <c r="AD13" t="n">
-        <v>134671.5818641293</v>
+        <v>179367.3418632069</v>
       </c>
       <c r="AE13" t="n">
-        <v>184263.5995972971</v>
+        <v>245418.3102657702</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.876763609175494e-06</v>
+        <v>4.062158291633651e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>166677.7402673691</v>
+        <v>221995.9311808381</v>
       </c>
     </row>
     <row r="14">
@@ -11727,28 +11727,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>134.5168053077451</v>
+        <v>179.2125653068226</v>
       </c>
       <c r="AB14" t="n">
-        <v>184.0518274845925</v>
+        <v>245.2065381530656</v>
       </c>
       <c r="AC14" t="n">
-        <v>166.486179387877</v>
+        <v>221.8043703013459</v>
       </c>
       <c r="AD14" t="n">
-        <v>134516.8053077451</v>
+        <v>179212.5653068226</v>
       </c>
       <c r="AE14" t="n">
-        <v>184051.8274845925</v>
+        <v>245206.5381530656</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.873161790592102e-06</v>
+        <v>4.057072313356946e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>166486.179387877</v>
+        <v>221804.3703013459</v>
       </c>
     </row>
   </sheetData>
@@ -12024,28 +12024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.3077141106997</v>
+        <v>179.7269145861456</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.9245190999141</v>
+        <v>245.9102935285237</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.0390913121899</v>
+        <v>222.4409602514973</v>
       </c>
       <c r="AD2" t="n">
-        <v>129307.7141106997</v>
+        <v>179726.9145861456</v>
       </c>
       <c r="AE2" t="n">
-        <v>176924.5190999141</v>
+        <v>245910.2935285236</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.894774675037759e-06</v>
+        <v>4.237841225863227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>160039.0913121899</v>
+        <v>222440.9602514973</v>
       </c>
     </row>
     <row r="3">
@@ -12130,28 +12130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.5975378905746</v>
+        <v>166.5994043195686</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.479848197233</v>
+        <v>227.948654836923</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.2094907553061</v>
+        <v>206.1935551472991</v>
       </c>
       <c r="AD3" t="n">
-        <v>124597.5378905746</v>
+        <v>166599.4043195686</v>
       </c>
       <c r="AE3" t="n">
-        <v>170479.848197233</v>
+        <v>227948.654836923</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.093717390893387e-06</v>
+        <v>4.529085877859217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>154209.4907553061</v>
+        <v>206193.5551472991</v>
       </c>
     </row>
     <row r="4">
@@ -12236,28 +12236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.825293792253</v>
+        <v>154.9124115672676</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.3725444671621</v>
+        <v>211.9579957595013</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.6394454864853</v>
+        <v>191.7290221291905</v>
       </c>
       <c r="AD4" t="n">
-        <v>112825.293792253</v>
+        <v>154912.4115672676</v>
       </c>
       <c r="AE4" t="n">
-        <v>154372.5444671621</v>
+        <v>211957.9957595013</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.226209038168521e-06</v>
+        <v>4.723048665272979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>139639.4454864853</v>
+        <v>191729.0221291905</v>
       </c>
     </row>
     <row r="5">
@@ -12342,28 +12342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.1690941925448</v>
+        <v>152.0856197669672</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.7382149915873</v>
+        <v>208.0902545090797</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.3519713152447</v>
+        <v>188.2304126752989</v>
       </c>
       <c r="AD5" t="n">
-        <v>110169.0941925448</v>
+        <v>152085.6197669672</v>
       </c>
       <c r="AE5" t="n">
-        <v>150738.2149915873</v>
+        <v>208090.2545090797</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.348776488791554e-06</v>
+        <v>4.902482802125951e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>136351.9713152447</v>
+        <v>188230.4126752989</v>
       </c>
     </row>
     <row r="6">
@@ -12448,28 +12448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.227307714823</v>
+        <v>152.1438332892454</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.8178653009675</v>
+        <v>208.1699048184599</v>
       </c>
       <c r="AC6" t="n">
-        <v>136.4240199108876</v>
+        <v>188.3024612709418</v>
       </c>
       <c r="AD6" t="n">
-        <v>110227.3077148229</v>
+        <v>152143.8332892453</v>
       </c>
       <c r="AE6" t="n">
-        <v>150817.8653009675</v>
+        <v>208169.9048184599</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.347206968639761e-06</v>
+        <v>4.900185083667431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>136424.0199108876</v>
+        <v>188302.4612709418</v>
       </c>
     </row>
   </sheetData>
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.6674396950373</v>
+        <v>243.9488777830945</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.9336497093194</v>
+        <v>333.781616847599</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.0803329652151</v>
+        <v>301.925967801205</v>
       </c>
       <c r="AD2" t="n">
-        <v>182667.4396950373</v>
+        <v>243948.8777830945</v>
       </c>
       <c r="AE2" t="n">
-        <v>249933.6497093194</v>
+        <v>333781.616847599</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.244592304340475e-06</v>
+        <v>3.204854962058017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>226080.3329652151</v>
+        <v>301925.967801205</v>
       </c>
     </row>
     <row r="3">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.7075276885279</v>
+        <v>217.2954451613497</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.360105766628</v>
+        <v>297.3132144680872</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.8520535672208</v>
+        <v>268.938058561058</v>
       </c>
       <c r="AD3" t="n">
-        <v>164707.5276885279</v>
+        <v>217295.4451613497</v>
       </c>
       <c r="AE3" t="n">
-        <v>225360.105766628</v>
+        <v>297313.2144680872</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.467971734361645e-06</v>
+        <v>3.523798706692921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>203852.0535672208</v>
+        <v>268938.058561058</v>
       </c>
     </row>
     <row r="4">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.873033837624</v>
+        <v>203.3756104558742</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.4311409450374</v>
+        <v>278.2674825242989</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.7296425812278</v>
+        <v>251.7100245431262</v>
       </c>
       <c r="AD4" t="n">
-        <v>150873.033837624</v>
+        <v>203375.6104558742</v>
       </c>
       <c r="AE4" t="n">
-        <v>206431.1409450374</v>
+        <v>278267.4825242989</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.613573574389752e-06</v>
+        <v>3.731690704984328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.3671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>186729.6425812278</v>
+        <v>251710.0245431262</v>
       </c>
     </row>
     <row r="5">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.1614824861655</v>
+        <v>190.7493104504362</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.0386355919138</v>
+        <v>260.9916218238245</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.9970535284662</v>
+        <v>236.0829477410768</v>
       </c>
       <c r="AD5" t="n">
-        <v>138161.4824861654</v>
+        <v>190749.3104504362</v>
       </c>
       <c r="AE5" t="n">
-        <v>189038.6355919138</v>
+        <v>260991.6218238245</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.73589007781882e-06</v>
+        <v>3.906335629231014e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>170997.0535284662</v>
+        <v>236082.9477410768</v>
       </c>
     </row>
     <row r="6">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.4261276437239</v>
+        <v>179.4057758473309</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.2960024211483</v>
+        <v>245.4708973384363</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.6116120146988</v>
+        <v>222.0434994170954</v>
       </c>
       <c r="AD6" t="n">
-        <v>135426.1276437239</v>
+        <v>179405.7758473309</v>
       </c>
       <c r="AE6" t="n">
-        <v>185296.0024211483</v>
+        <v>245470.8973384363</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.825538623725119e-06</v>
+        <v>4.034336864303192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>167611.6120146988</v>
+        <v>222043.4994170954</v>
       </c>
     </row>
     <row r="7">
@@ -13275,28 +13275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.1982075070979</v>
+        <v>176.0072635101127</v>
       </c>
       <c r="AB7" t="n">
-        <v>180.879419684433</v>
+        <v>240.8209028268741</v>
       </c>
       <c r="AC7" t="n">
-        <v>163.6165417356613</v>
+        <v>217.8372938554069</v>
       </c>
       <c r="AD7" t="n">
-        <v>132198.2075070979</v>
+        <v>176007.2635101127</v>
       </c>
       <c r="AE7" t="n">
-        <v>180879.419684433</v>
+        <v>240820.9028268741</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.931053158784685e-06</v>
+        <v>4.184991742964667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>163616.5417356613</v>
+        <v>217837.2938554069</v>
       </c>
     </row>
     <row r="8">
@@ -13381,28 +13381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.3858145016455</v>
+        <v>175.1948705046603</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.7678677341236</v>
+        <v>239.7093508765647</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.6110747434162</v>
+        <v>216.8318268631618</v>
       </c>
       <c r="AD8" t="n">
-        <v>131385.8145016455</v>
+        <v>175194.8705046603</v>
       </c>
       <c r="AE8" t="n">
-        <v>179767.8677341236</v>
+        <v>239709.3508765647</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.95997719944251e-06</v>
+        <v>4.226289824155512e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>162611.0747434162</v>
+        <v>216831.8268631618</v>
       </c>
     </row>
     <row r="9">
@@ -13487,28 +13487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.7661699401292</v>
+        <v>164.6604772891646</v>
       </c>
       <c r="AB9" t="n">
-        <v>165.2376015394117</v>
+        <v>225.295729334502</v>
       </c>
       <c r="AC9" t="n">
-        <v>149.4675567609663</v>
+        <v>203.7938211314241</v>
       </c>
       <c r="AD9" t="n">
-        <v>120766.1699401292</v>
+        <v>164660.4772891646</v>
       </c>
       <c r="AE9" t="n">
-        <v>165237.6015394117</v>
+        <v>225295.729334502</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.011935460324287e-06</v>
+        <v>4.300476432514127e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>149467.5567609663</v>
+        <v>203793.8211314241</v>
       </c>
     </row>
     <row r="10">
@@ -13593,28 +13593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.0246739381332</v>
+        <v>163.9189812871685</v>
       </c>
       <c r="AB10" t="n">
-        <v>164.2230539969864</v>
+        <v>224.2811817920767</v>
       </c>
       <c r="AC10" t="n">
-        <v>148.5498362120633</v>
+        <v>202.8761005825211</v>
       </c>
       <c r="AD10" t="n">
-        <v>120024.6739381332</v>
+        <v>163918.9812871685</v>
       </c>
       <c r="AE10" t="n">
-        <v>164223.0539969864</v>
+        <v>224281.1817920767</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.033508639820456e-06</v>
+        <v>4.331278868761442e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>148549.8362120633</v>
+        <v>202876.1005825211</v>
       </c>
     </row>
     <row r="11">
@@ -13699,28 +13699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>120.1045791229628</v>
+        <v>163.9988864719981</v>
       </c>
       <c r="AB11" t="n">
-        <v>164.3323837960382</v>
+        <v>224.3905115911285</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.6487317285389</v>
+        <v>202.9749960989967</v>
       </c>
       <c r="AD11" t="n">
-        <v>120104.5791229628</v>
+        <v>163998.8864719981</v>
       </c>
       <c r="AE11" t="n">
-        <v>164332.3837960382</v>
+        <v>224390.5115911285</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.032390030513247e-06</v>
+        <v>4.329681705400471e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>148648.7317285389</v>
+        <v>202974.9960989968</v>
       </c>
     </row>
   </sheetData>
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.34650005675689</v>
+        <v>138.1829437279556</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.9302642358537</v>
+        <v>189.0679998097342</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.9572705965443</v>
+        <v>171.0236152665508</v>
       </c>
       <c r="AD2" t="n">
-        <v>99346.50005675689</v>
+        <v>138182.9437279556</v>
       </c>
       <c r="AE2" t="n">
-        <v>135930.2642358537</v>
+        <v>189067.9998097342</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606823059796745e-06</v>
+        <v>5.580200474189998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>122957.2705965443</v>
+        <v>171023.6152665509</v>
       </c>
     </row>
   </sheetData>
@@ -14293,28 +14293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.5823534588512</v>
+        <v>143.6896810175736</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.7259457332596</v>
+        <v>196.6025607094892</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.1998203861297</v>
+        <v>177.8390882488582</v>
       </c>
       <c r="AD2" t="n">
-        <v>103582.3534588512</v>
+        <v>143689.6810175736</v>
       </c>
       <c r="AE2" t="n">
-        <v>141725.9457332596</v>
+        <v>196602.5607094892</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516288786706759e-06</v>
+        <v>5.314146034641123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.544270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>128199.8203861296</v>
+        <v>177839.0882488582</v>
       </c>
     </row>
     <row r="3">
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.6341593080789</v>
+        <v>143.7414868668013</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.7968287816856</v>
+        <v>196.6734437579152</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.2639384558989</v>
+        <v>177.9032063186275</v>
       </c>
       <c r="AD3" t="n">
-        <v>103634.1593080789</v>
+        <v>143741.4868668013</v>
       </c>
       <c r="AE3" t="n">
-        <v>141796.8287816856</v>
+        <v>196673.4437579152</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.514304003240304e-06</v>
+        <v>5.311146443359612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.544270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>128263.9384558989</v>
+        <v>177903.2063186275</v>
       </c>
     </row>
   </sheetData>
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.932474111284</v>
+        <v>296.7462518196046</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.7625343993206</v>
+        <v>406.0213132602612</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.3901100637705</v>
+        <v>367.2712089771933</v>
       </c>
       <c r="AD2" t="n">
-        <v>224932.474111284</v>
+        <v>296746.2518196046</v>
       </c>
       <c r="AE2" t="n">
-        <v>307762.5343993206</v>
+        <v>406021.3132602612</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.893356458210762e-06</v>
+        <v>2.666809861036725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>278390.1100637704</v>
+        <v>367271.2089771933</v>
       </c>
     </row>
     <row r="3">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.8233594075343</v>
+        <v>255.8096830778298</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.829427107507</v>
+        <v>350.0100939136472</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.6499168713702</v>
+        <v>316.6056217928853</v>
       </c>
       <c r="AD3" t="n">
-        <v>192823.3594075343</v>
+        <v>255809.6830778298</v>
       </c>
       <c r="AE3" t="n">
-        <v>263829.427107507</v>
+        <v>350010.0939136472</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.12180022778877e-06</v>
+        <v>2.988574996577418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.5546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>238649.9168713702</v>
+        <v>316605.6217928853</v>
       </c>
     </row>
     <row r="4">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.9829916534024</v>
+        <v>238.8839744691262</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.7876930017243</v>
+        <v>326.8515926856668</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.8072535293591</v>
+        <v>295.6573354189355</v>
       </c>
       <c r="AD4" t="n">
-        <v>175982.9916534024</v>
+        <v>238883.9744691262</v>
       </c>
       <c r="AE4" t="n">
-        <v>240787.6930017243</v>
+        <v>326851.5926856669</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.283377016641004e-06</v>
+        <v>3.216157379153694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>217807.2535293591</v>
+        <v>295657.3354189355</v>
       </c>
     </row>
     <row r="5">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.5057602842319</v>
+        <v>225.4087863698931</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.6617475209207</v>
+        <v>308.4142458449631</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.265959687423</v>
+        <v>278.9796230837237</v>
       </c>
       <c r="AD5" t="n">
-        <v>171505.7602842319</v>
+        <v>225408.7863698931</v>
       </c>
       <c r="AE5" t="n">
-        <v>234661.7475209207</v>
+        <v>308414.2458449631</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.39021834242062e-06</v>
+        <v>3.366644362161941e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH5" t="n">
-        <v>212265.959687423</v>
+        <v>278979.6230837237</v>
       </c>
     </row>
     <row r="6">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.5841277113155</v>
+        <v>212.5724051429974</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.9817997724693</v>
+        <v>290.8509427491609</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.2733613381156</v>
+        <v>263.0925369851286</v>
       </c>
       <c r="AD6" t="n">
-        <v>158584.1277113156</v>
+        <v>212572.4051429974</v>
       </c>
       <c r="AE6" t="n">
-        <v>216981.7997724693</v>
+        <v>290850.9427491609</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.489612816744656e-06</v>
+        <v>3.506642386892261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>196273.3613381156</v>
+        <v>263092.5369851286</v>
       </c>
     </row>
     <row r="7">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.5391521653534</v>
+        <v>200.5294728669726</v>
       </c>
       <c r="AB7" t="n">
-        <v>212.8155298956457</v>
+        <v>274.373271512437</v>
       </c>
       <c r="AC7" t="n">
-        <v>192.5047144109382</v>
+        <v>248.1874715646756</v>
       </c>
       <c r="AD7" t="n">
-        <v>155539.1521653534</v>
+        <v>200529.4728669726</v>
       </c>
       <c r="AE7" t="n">
-        <v>212815.5298956457</v>
+        <v>274373.271512437</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.574467147870555e-06</v>
+        <v>3.626160487151136e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>192504.7144109382</v>
+        <v>248187.4715646756</v>
       </c>
     </row>
     <row r="8">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.6991752682072</v>
+        <v>197.6021118453174</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.6155511620628</v>
+        <v>270.3679270165568</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.8508389108705</v>
+        <v>244.5643915259446</v>
       </c>
       <c r="AD8" t="n">
-        <v>143699.1752682072</v>
+        <v>197602.1118453174</v>
       </c>
       <c r="AE8" t="n">
-        <v>196615.5511620629</v>
+        <v>270367.9270165568</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.649930049119239e-06</v>
+        <v>3.732450672667819e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>177850.8389108705</v>
+        <v>244564.3915259446</v>
       </c>
     </row>
     <row r="9">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>142.6219550163429</v>
+        <v>196.524891593453</v>
       </c>
       <c r="AB9" t="n">
-        <v>195.1416508898594</v>
+        <v>268.8940267443534</v>
       </c>
       <c r="AC9" t="n">
-        <v>176.5176056120136</v>
+        <v>243.2311582270877</v>
       </c>
       <c r="AD9" t="n">
-        <v>142621.9550163429</v>
+        <v>196524.891593453</v>
       </c>
       <c r="AE9" t="n">
-        <v>195141.6508898594</v>
+        <v>268894.0267443534</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.681905105665899e-06</v>
+        <v>3.777487831801827e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>176517.6056120136</v>
+        <v>243231.1582270878</v>
       </c>
     </row>
     <row r="10">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.7832092116944</v>
+        <v>185.8587812593342</v>
       </c>
       <c r="AB10" t="n">
-        <v>192.6257977602008</v>
+        <v>254.3001840296415</v>
       </c>
       <c r="AC10" t="n">
-        <v>174.2418619740268</v>
+        <v>230.0301313784764</v>
       </c>
       <c r="AD10" t="n">
-        <v>140783.2092116944</v>
+        <v>185858.7812593342</v>
       </c>
       <c r="AE10" t="n">
-        <v>192625.7977602008</v>
+        <v>254300.1840296414</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.733060776644144e-06</v>
+        <v>3.849541061515187e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>174241.8619740268</v>
+        <v>230030.1313784764</v>
       </c>
     </row>
     <row r="11">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.7972982055291</v>
+        <v>184.7022780525767</v>
       </c>
       <c r="AB11" t="n">
-        <v>191.2768308262423</v>
+        <v>252.7178053208361</v>
       </c>
       <c r="AC11" t="n">
-        <v>173.0216385509579</v>
+        <v>228.5987726727565</v>
       </c>
       <c r="AD11" t="n">
-        <v>139797.2982055291</v>
+        <v>184702.2780525767</v>
       </c>
       <c r="AE11" t="n">
-        <v>191276.8308262423</v>
+        <v>252717.8053208361</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.756064255472806e-06</v>
+        <v>3.881941671507242e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>173021.6385509579</v>
+        <v>228598.7726727565</v>
       </c>
     </row>
     <row r="12">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>137.8901380690676</v>
+        <v>182.7951179161152</v>
       </c>
       <c r="AB12" t="n">
-        <v>188.6673701895699</v>
+        <v>250.1083446841637</v>
       </c>
       <c r="AC12" t="n">
-        <v>170.6612211750476</v>
+        <v>226.2383552968462</v>
       </c>
       <c r="AD12" t="n">
-        <v>137890.1380690676</v>
+        <v>182795.1179161152</v>
       </c>
       <c r="AE12" t="n">
-        <v>188667.3701895699</v>
+        <v>250108.3446841637</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.810291476457951e-06</v>
+        <v>3.958321207453929e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH12" t="n">
-        <v>170661.2211750477</v>
+        <v>226238.3552968462</v>
       </c>
     </row>
     <row r="13">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>136.5858429610888</v>
+        <v>181.4908228081364</v>
       </c>
       <c r="AB13" t="n">
-        <v>186.8827760813951</v>
+        <v>248.3237505759889</v>
       </c>
       <c r="AC13" t="n">
-        <v>169.0469462238629</v>
+        <v>224.6240803456615</v>
       </c>
       <c r="AD13" t="n">
-        <v>136585.8429610888</v>
+        <v>181490.8228081364</v>
       </c>
       <c r="AE13" t="n">
-        <v>186882.7760813951</v>
+        <v>248323.7505759889</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.838377376161341e-06</v>
+        <v>3.997880453659406e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>169046.9462238629</v>
+        <v>224624.0803456615</v>
       </c>
     </row>
     <row r="14">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>135.6310649538374</v>
+        <v>180.5360448008849</v>
       </c>
       <c r="AB14" t="n">
-        <v>185.5764066900414</v>
+        <v>247.0173811846352</v>
       </c>
       <c r="AC14" t="n">
-        <v>167.8652548937187</v>
+        <v>223.4423890155173</v>
       </c>
       <c r="AD14" t="n">
-        <v>135631.0649538373</v>
+        <v>180536.0448008849</v>
       </c>
       <c r="AE14" t="n">
-        <v>185576.4066900414</v>
+        <v>247017.3811846352</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.860519053189506e-06</v>
+        <v>4.029067207945707e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>167865.2548937187</v>
+        <v>223442.3890155173</v>
       </c>
     </row>
     <row r="15">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>135.6924925039176</v>
+        <v>180.5974723509652</v>
       </c>
       <c r="AB15" t="n">
-        <v>185.6604545740534</v>
+        <v>247.1014290686471</v>
       </c>
       <c r="AC15" t="n">
-        <v>167.9412813656425</v>
+        <v>223.5184154874411</v>
       </c>
       <c r="AD15" t="n">
-        <v>135692.4925039176</v>
+        <v>180597.4723509652</v>
       </c>
       <c r="AE15" t="n">
-        <v>185660.4545740534</v>
+        <v>247101.4290686472</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.858552377285806e-06</v>
+        <v>4.026297126976166e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>167941.2813656425</v>
+        <v>223518.4154874411</v>
       </c>
     </row>
     <row r="16">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>135.7708563069735</v>
+        <v>180.6758361540211</v>
       </c>
       <c r="AB16" t="n">
-        <v>185.7676753865615</v>
+        <v>247.2086498811553</v>
       </c>
       <c r="AC16" t="n">
-        <v>168.0382691742902</v>
+        <v>223.6154032960889</v>
       </c>
       <c r="AD16" t="n">
-        <v>135770.8563069736</v>
+        <v>180675.8361540211</v>
       </c>
       <c r="AE16" t="n">
-        <v>185767.6753865615</v>
+        <v>247208.6498811553</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.857734770449437e-06</v>
+        <v>4.025145520280962e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>168038.2691742902</v>
+        <v>223615.4032960889</v>
       </c>
     </row>
   </sheetData>
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.1851188095825</v>
+        <v>141.8939256492671</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.5506758782601</v>
+        <v>194.1455289914379</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.9458394436076</v>
+        <v>175.6165521895113</v>
       </c>
       <c r="AD2" t="n">
-        <v>104185.1188095825</v>
+        <v>141893.9256492672</v>
       </c>
       <c r="AE2" t="n">
-        <v>142550.6758782601</v>
+        <v>194145.5289914379</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.581753810475653e-06</v>
+        <v>5.660918881820369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>128945.8394436076</v>
+        <v>175616.5521895113</v>
       </c>
     </row>
   </sheetData>
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.6811286631535</v>
+        <v>192.3556323772025</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.8543707670969</v>
+        <v>263.1894623499471</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.3531816974582</v>
+        <v>238.0710294520754</v>
       </c>
       <c r="AD2" t="n">
-        <v>141681.1286631534</v>
+        <v>192355.6323772025</v>
       </c>
       <c r="AE2" t="n">
-        <v>193854.3707670969</v>
+        <v>263189.4623499471</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774967254779473e-06</v>
+        <v>4.045586712913003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>175353.1816974581</v>
+        <v>238071.0294520754</v>
       </c>
     </row>
     <row r="3">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.7269324684339</v>
+        <v>170.0125943846143</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.761623917803</v>
+        <v>232.6187320632346</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.0826198106163</v>
+        <v>210.4179267576276</v>
       </c>
       <c r="AD3" t="n">
-        <v>127726.9324684339</v>
+        <v>170012.5943846143</v>
       </c>
       <c r="AE3" t="n">
-        <v>174761.623917803</v>
+        <v>232618.7320632346</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.983944084105722e-06</v>
+        <v>4.35025116708731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>158082.6198106162</v>
+        <v>210417.9267576276</v>
       </c>
     </row>
     <row r="4">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.5682203354256</v>
+        <v>166.2426345409237</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.1255375729077</v>
+        <v>227.4605066862095</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.0342581975786</v>
+        <v>205.7519951709693</v>
       </c>
       <c r="AD4" t="n">
-        <v>115568.2203354256</v>
+        <v>166242.6345409237</v>
       </c>
       <c r="AE4" t="n">
-        <v>158125.5375729077</v>
+        <v>227460.5066862095</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.13761970507597e-06</v>
+        <v>4.57429274783933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>143034.2581975786</v>
+        <v>205751.9951709693</v>
       </c>
     </row>
     <row r="5">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.3504415386292</v>
+        <v>154.7213548008303</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.7228306647515</v>
+        <v>211.6965834628323</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.0517394574975</v>
+        <v>191.4925586552211</v>
       </c>
       <c r="AD5" t="n">
-        <v>112350.4415386292</v>
+        <v>154721.3548008303</v>
       </c>
       <c r="AE5" t="n">
-        <v>153722.8306647515</v>
+        <v>211696.5834628324</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.265594980838798e-06</v>
+        <v>4.760866147693239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.544270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>139051.7394574975</v>
+        <v>191492.5586552211</v>
       </c>
     </row>
     <row r="6">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.3354680865713</v>
+        <v>154.7063813487724</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.7023433270637</v>
+        <v>211.6760961251446</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.0332074025645</v>
+        <v>191.4740266002881</v>
       </c>
       <c r="AD6" t="n">
-        <v>112335.4680865713</v>
+        <v>154706.3813487724</v>
       </c>
       <c r="AE6" t="n">
-        <v>153702.3433270637</v>
+        <v>211676.0961251446</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266719670061096e-06</v>
+        <v>4.762505816689711e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.544270833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>139033.2074025645</v>
+        <v>191474.0266002881</v>
       </c>
     </row>
     <row r="7">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>112.3752403723375</v>
+        <v>154.7461536345386</v>
       </c>
       <c r="AB7" t="n">
-        <v>153.7567615230785</v>
+        <v>211.7305143211594</v>
       </c>
       <c r="AC7" t="n">
-        <v>139.0824320023281</v>
+        <v>191.5232512000516</v>
       </c>
       <c r="AD7" t="n">
-        <v>112375.2403723375</v>
+        <v>154746.1536345386</v>
       </c>
       <c r="AE7" t="n">
-        <v>153756.7615230785</v>
+        <v>211730.5143211594</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.26621714934475e-06</v>
+        <v>4.761773198627459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.544270833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>139082.4320023281</v>
+        <v>191523.2512000517</v>
       </c>
     </row>
   </sheetData>
@@ -17601,28 +17601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.5344753630397</v>
+        <v>139.7966261228298</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.2921926934521</v>
+        <v>191.2759112530429</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.9029027241559</v>
+        <v>173.020806740534</v>
       </c>
       <c r="AD2" t="n">
-        <v>102534.4753630397</v>
+        <v>139796.6261228298</v>
       </c>
       <c r="AE2" t="n">
-        <v>140292.1926934521</v>
+        <v>191275.9112530429</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.530932428100826e-06</v>
+        <v>5.657383157645959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>126902.9027241559</v>
+        <v>173020.806740534</v>
       </c>
     </row>
   </sheetData>
@@ -17898,28 +17898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.8074019650204</v>
+        <v>248.5811450404613</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.5981287293526</v>
+        <v>340.1196892703334</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.2042020577244</v>
+        <v>307.6591434874561</v>
       </c>
       <c r="AD2" t="n">
-        <v>186807.4019650204</v>
+        <v>248581.1450404613</v>
       </c>
       <c r="AE2" t="n">
-        <v>255598.1287293526</v>
+        <v>340119.6892703334</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.172876435647251e-06</v>
+        <v>3.093338581157492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>231204.2020577244</v>
+        <v>307659.1434874561</v>
       </c>
     </row>
     <row r="3">
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.5888970179633</v>
+        <v>221.452568308035</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.6707665170887</v>
+        <v>303.0011737567087</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.6558723092184</v>
+        <v>274.0831669982761</v>
       </c>
       <c r="AD3" t="n">
-        <v>168588.8970179633</v>
+        <v>221452.568308035</v>
       </c>
       <c r="AE3" t="n">
-        <v>230670.7665170887</v>
+        <v>303001.1737567087</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.385489227674754e-06</v>
+        <v>3.396017252450818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>208655.8723092184</v>
+        <v>274083.1669982761</v>
       </c>
     </row>
     <row r="4">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.7474914432444</v>
+        <v>206.6964140793366</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.3641006531649</v>
+        <v>282.8111525454341</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.2872461347565</v>
+        <v>255.8200530745266</v>
       </c>
       <c r="AD4" t="n">
-        <v>153747.4914432444</v>
+        <v>206696.4140793366</v>
       </c>
       <c r="AE4" t="n">
-        <v>210364.1006531649</v>
+        <v>282811.1525454341</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547998130772764e-06</v>
+        <v>3.627367296791889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>190287.2461347565</v>
+        <v>255820.0530745265</v>
       </c>
     </row>
     <row r="5">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.9480465266848</v>
+        <v>194.0722382319793</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.1655324986509</v>
+        <v>265.538198211757</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.5848220286715</v>
+        <v>240.1956052597064</v>
       </c>
       <c r="AD5" t="n">
-        <v>149948.0465266848</v>
+        <v>194072.2382319793</v>
       </c>
       <c r="AE5" t="n">
-        <v>205165.532498651</v>
+        <v>265538.198211757</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.664869419203323e-06</v>
+        <v>3.793746967352467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>185584.8220286715</v>
+        <v>240195.6052597064</v>
       </c>
     </row>
     <row r="6">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.1317976925183</v>
+        <v>190.9953794740389</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.9980195476451</v>
+        <v>261.3283043177167</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.9603138224576</v>
+        <v>236.3874977302888</v>
       </c>
       <c r="AD6" t="n">
-        <v>138131.7976925183</v>
+        <v>190995.3794740389</v>
       </c>
       <c r="AE6" t="n">
-        <v>188998.0195476451</v>
+        <v>261328.3043177167</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.754081547229365e-06</v>
+        <v>3.920750653803654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>170960.3138224576</v>
+        <v>236387.4977302888</v>
       </c>
     </row>
     <row r="7">
@@ -18428,28 +18428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>134.6667802905218</v>
+        <v>178.7056311412448</v>
       </c>
       <c r="AB7" t="n">
-        <v>184.2570298724569</v>
+        <v>244.5129284633654</v>
       </c>
       <c r="AC7" t="n">
-        <v>166.671797547847</v>
+        <v>221.1769577469431</v>
       </c>
       <c r="AD7" t="n">
-        <v>134666.7802905219</v>
+        <v>178705.6311412448</v>
       </c>
       <c r="AE7" t="n">
-        <v>184257.0298724569</v>
+        <v>244512.9284633654</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.864763531733339e-06</v>
+        <v>4.078319141034835e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>166671.797547847</v>
+        <v>221176.9577469431</v>
       </c>
     </row>
     <row r="8">
@@ -18534,28 +18534,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.0024845326793</v>
+        <v>178.0413353834022</v>
       </c>
       <c r="AB8" t="n">
-        <v>183.3481111099167</v>
+        <v>243.6040097008251</v>
       </c>
       <c r="AC8" t="n">
-        <v>165.8496247163279</v>
+        <v>220.354784915424</v>
       </c>
       <c r="AD8" t="n">
-        <v>134002.4845326793</v>
+        <v>178041.3353834022</v>
       </c>
       <c r="AE8" t="n">
-        <v>183348.1111099167</v>
+        <v>243604.0097008251</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.886550788412634e-06</v>
+        <v>4.109335797370183e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>165849.6247163279</v>
+        <v>220354.784915424</v>
       </c>
     </row>
     <row r="9">
@@ -18640,28 +18640,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.2852539931448</v>
+        <v>176.3241048438677</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.9985205268621</v>
+        <v>241.2544191177706</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.7242757608482</v>
+        <v>218.2294359599443</v>
       </c>
       <c r="AD9" t="n">
-        <v>132285.2539931448</v>
+        <v>176324.1048438677</v>
       </c>
       <c r="AE9" t="n">
-        <v>180998.5205268621</v>
+        <v>241254.4191177706</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.937357492073717e-06</v>
+        <v>4.181664961623578e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>163724.2757608482</v>
+        <v>218229.4359599443</v>
       </c>
     </row>
     <row r="10">
@@ -18746,28 +18746,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.7180907934345</v>
+        <v>165.842192990178</v>
       </c>
       <c r="AB10" t="n">
-        <v>166.5400616466875</v>
+        <v>226.9126048902452</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.6457119036183</v>
+        <v>205.2563843534267</v>
       </c>
       <c r="AD10" t="n">
-        <v>121718.0907934345</v>
+        <v>165842.192990178</v>
       </c>
       <c r="AE10" t="n">
-        <v>166540.0616466875</v>
+        <v>226912.6048902452</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.988005495634118e-06</v>
+        <v>4.253768198099297e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.8828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>150645.7119036183</v>
+        <v>205256.3843534267</v>
       </c>
     </row>
     <row r="11">
@@ -18852,28 +18852,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.709739991783</v>
+        <v>174.4879809187319</v>
       </c>
       <c r="AB11" t="n">
-        <v>166.5286357114565</v>
+        <v>238.7421533593305</v>
       </c>
       <c r="AC11" t="n">
-        <v>150.6353764436093</v>
+        <v>215.9569373195018</v>
       </c>
       <c r="AD11" t="n">
-        <v>121709.739991783</v>
+        <v>174487.9809187319</v>
       </c>
       <c r="AE11" t="n">
-        <v>166528.6357114565</v>
+        <v>238742.1533593305</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.977644646203902e-06</v>
+        <v>4.239018341756682e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>150635.3764436093</v>
+        <v>215956.9373195018</v>
       </c>
     </row>
     <row r="12">
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.6803776277926</v>
+        <v>174.4586185547416</v>
       </c>
       <c r="AB12" t="n">
-        <v>166.4884608296689</v>
+        <v>238.7019784775428</v>
       </c>
       <c r="AC12" t="n">
-        <v>150.5990357961537</v>
+        <v>215.9205966720462</v>
       </c>
       <c r="AD12" t="n">
-        <v>121680.3776277926</v>
+        <v>174458.6185547416</v>
       </c>
       <c r="AE12" t="n">
-        <v>166488.4608296689</v>
+        <v>238701.9784775428</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.978075403620038e-06</v>
+        <v>4.239631574296089e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>150599.0357961537</v>
+        <v>215920.5966720462</v>
       </c>
     </row>
   </sheetData>
@@ -19255,28 +19255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.0705915588021</v>
+        <v>303.3826537690471</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.1609774856407</v>
+        <v>415.1015311848793</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.9870175292237</v>
+        <v>375.4848236472517</v>
       </c>
       <c r="AD2" t="n">
-        <v>231070.5915588021</v>
+        <v>303382.6537690471</v>
       </c>
       <c r="AE2" t="n">
-        <v>316160.9774856407</v>
+        <v>415101.5311848792</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.822517739431441e-06</v>
+        <v>2.560807676985157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>285987.0175292238</v>
+        <v>375484.8236472517</v>
       </c>
     </row>
     <row r="3">
@@ -19361,28 +19361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.4446502362634</v>
+        <v>269.5860307373647</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.1524810963334</v>
+        <v>368.8595005511528</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.369507461967</v>
+        <v>333.6560675161106</v>
       </c>
       <c r="AD3" t="n">
-        <v>197444.6502362634</v>
+        <v>269586.0307373647</v>
       </c>
       <c r="AE3" t="n">
-        <v>270152.4810963334</v>
+        <v>368859.5005511529</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.053160577373228e-06</v>
+        <v>2.884882410121763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>244369.507461967</v>
+        <v>333656.0675161105</v>
       </c>
     </row>
     <row r="4">
@@ -19467,28 +19467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.208617596198</v>
+        <v>243.3963311755874</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.5693808381139</v>
+        <v>333.0255982025722</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.0371451932954</v>
+        <v>301.2421025145805</v>
       </c>
       <c r="AD4" t="n">
-        <v>180208.617596198</v>
+        <v>243396.3311755874</v>
       </c>
       <c r="AE4" t="n">
-        <v>246569.380838114</v>
+        <v>333025.5982025722</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208877441960784e-06</v>
+        <v>3.103679151379419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>223037.1451932954</v>
+        <v>301242.1025145805</v>
       </c>
     </row>
     <row r="5">
@@ -19573,28 +19573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.6216616149474</v>
+        <v>228.7704569266077</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.9250611854685</v>
+        <v>313.0138318070958</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.1223886794261</v>
+        <v>283.1402310171914</v>
       </c>
       <c r="AD5" t="n">
-        <v>174621.6616149474</v>
+        <v>228770.4569266078</v>
       </c>
       <c r="AE5" t="n">
-        <v>238925.0611854685</v>
+        <v>313013.8318070957</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.33219447931366e-06</v>
+        <v>3.276951108696458e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>216122.388679426</v>
+        <v>283140.2310171914</v>
       </c>
     </row>
     <row r="6">
@@ -19679,28 +19679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.4566966885958</v>
+        <v>215.6907433462767</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.9121753759814</v>
+        <v>295.1175906502578</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.8286274103466</v>
+        <v>266.9519819988241</v>
       </c>
       <c r="AD6" t="n">
-        <v>161456.6966885958</v>
+        <v>215690.7433462767</v>
       </c>
       <c r="AE6" t="n">
-        <v>220912.1753759814</v>
+        <v>295117.5906502578</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.430228668431202e-06</v>
+        <v>3.414698302409665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>199828.6274103466</v>
+        <v>266951.9819988241</v>
       </c>
     </row>
     <row r="7">
@@ -19785,28 +19785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>158.4718797613045</v>
+        <v>212.5353342183931</v>
       </c>
       <c r="AB7" t="n">
-        <v>216.8282171752341</v>
+        <v>290.8002206746636</v>
       </c>
       <c r="AC7" t="n">
-        <v>196.1344364484061</v>
+        <v>263.0466557542326</v>
       </c>
       <c r="AD7" t="n">
-        <v>158471.8797613045</v>
+        <v>212535.3342183931</v>
       </c>
       <c r="AE7" t="n">
-        <v>216828.2171752341</v>
+        <v>290800.2206746637</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.511678539201503e-06</v>
+        <v>3.529142979597334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>196134.436448406</v>
+        <v>263046.6557542325</v>
       </c>
     </row>
     <row r="8">
@@ -19891,28 +19891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>155.9241639893689</v>
+        <v>201.1192923793207</v>
       </c>
       <c r="AB8" t="n">
-        <v>213.3423200587864</v>
+        <v>275.1802885902318</v>
       </c>
       <c r="AC8" t="n">
-        <v>192.9812284602636</v>
+        <v>248.9174680652215</v>
       </c>
       <c r="AD8" t="n">
-        <v>155924.1639893689</v>
+        <v>201119.2923793207</v>
       </c>
       <c r="AE8" t="n">
-        <v>213342.3200587864</v>
+        <v>275180.2885902318</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.580432070892721e-06</v>
+        <v>3.625748114332342e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>192981.2284602636</v>
+        <v>248917.4680652215</v>
       </c>
     </row>
     <row r="9">
@@ -19997,28 +19997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.4064600661757</v>
+        <v>197.555165869285</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.2150453089602</v>
+        <v>270.303693461039</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.4885567742743</v>
+        <v>244.5062883308131</v>
       </c>
       <c r="AD9" t="n">
-        <v>143406.4600661757</v>
+        <v>197555.165869285</v>
       </c>
       <c r="AE9" t="n">
-        <v>196215.0453089603</v>
+        <v>270303.693461039</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.665067009425074e-06</v>
+        <v>3.744668109263327e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>177488.5567742743</v>
+        <v>244506.2883308131</v>
       </c>
     </row>
     <row r="10">
@@ -20103,28 +20103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>143.7078709581444</v>
+        <v>197.8565767612536</v>
       </c>
       <c r="AB10" t="n">
-        <v>196.6274489886616</v>
+        <v>270.7160971407404</v>
       </c>
       <c r="AC10" t="n">
-        <v>177.8616012255974</v>
+        <v>244.8793327821361</v>
       </c>
       <c r="AD10" t="n">
-        <v>143707.8709581444</v>
+        <v>197856.5767612536</v>
       </c>
       <c r="AE10" t="n">
-        <v>196627.4489886616</v>
+        <v>270716.0971407404</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.664517859810927e-06</v>
+        <v>3.743896502755858e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>177861.6012255973</v>
+        <v>244879.3327821361</v>
       </c>
     </row>
     <row r="11">
@@ -20209,28 +20209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>141.7769417486938</v>
+        <v>187.0573214846661</v>
       </c>
       <c r="AB11" t="n">
-        <v>193.985466457708</v>
+        <v>255.9400796418027</v>
       </c>
       <c r="AC11" t="n">
-        <v>175.4717657993514</v>
+        <v>231.5135176550215</v>
       </c>
       <c r="AD11" t="n">
-        <v>141776.9417486938</v>
+        <v>187057.3214846661</v>
       </c>
       <c r="AE11" t="n">
-        <v>193985.466457708</v>
+        <v>255940.0796418027</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.716137923540756e-06</v>
+        <v>3.81642751445786e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>175471.7657993514</v>
+        <v>231513.5176550215</v>
       </c>
     </row>
     <row r="12">
@@ -20315,28 +20315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>140.6511769390383</v>
+        <v>185.7609644744185</v>
       </c>
       <c r="AB12" t="n">
-        <v>192.4451453799</v>
+        <v>254.1663467891478</v>
       </c>
       <c r="AC12" t="n">
-        <v>174.0784508033547</v>
+        <v>229.9090673763737</v>
       </c>
       <c r="AD12" t="n">
-        <v>140651.1769390383</v>
+        <v>185760.9644744185</v>
       </c>
       <c r="AE12" t="n">
-        <v>192445.1453799</v>
+        <v>254166.3467891478</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.74232137714329e-06</v>
+        <v>3.85321771273394e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>174078.4508033546</v>
+        <v>229909.0673763737</v>
       </c>
     </row>
     <row r="13">
@@ -20421,28 +20421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>139.3282945692386</v>
+        <v>184.4380821046188</v>
       </c>
       <c r="AB13" t="n">
-        <v>190.6351193600898</v>
+        <v>252.3563207693375</v>
       </c>
       <c r="AC13" t="n">
-        <v>172.441171126487</v>
+        <v>228.2717876995061</v>
       </c>
       <c r="AD13" t="n">
-        <v>139328.2945692386</v>
+        <v>184438.0821046187</v>
       </c>
       <c r="AE13" t="n">
-        <v>190635.1193600898</v>
+        <v>252356.3207693375</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.769207742251933e-06</v>
+        <v>3.890995567339579e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>172441.171126487</v>
+        <v>228271.7876995061</v>
       </c>
     </row>
     <row r="14">
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>138.2240539105622</v>
+        <v>183.3338414459423</v>
       </c>
       <c r="AB14" t="n">
-        <v>189.1242485752298</v>
+        <v>250.8454499844775</v>
       </c>
       <c r="AC14" t="n">
-        <v>171.0744957288131</v>
+        <v>226.9051123018322</v>
       </c>
       <c r="AD14" t="n">
-        <v>138224.0539105622</v>
+        <v>183333.8414459424</v>
       </c>
       <c r="AE14" t="n">
-        <v>189124.2485752298</v>
+        <v>250845.4499844775</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.79484204624032e-06</v>
+        <v>3.927014159108189e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH14" t="n">
-        <v>171074.4957288131</v>
+        <v>226905.1123018322</v>
       </c>
     </row>
     <row r="15">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>137.3242469796645</v>
+        <v>182.4340345150447</v>
       </c>
       <c r="AB15" t="n">
-        <v>187.893093035696</v>
+        <v>249.6142944449438</v>
       </c>
       <c r="AC15" t="n">
-        <v>169.9608399460344</v>
+        <v>225.7914565190535</v>
       </c>
       <c r="AD15" t="n">
-        <v>137324.2469796645</v>
+        <v>182434.0345150447</v>
       </c>
       <c r="AE15" t="n">
-        <v>187893.093035696</v>
+        <v>249614.2944449438</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.820981567873722e-06</v>
+        <v>3.963742628863671e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>169960.8399460344</v>
+        <v>225791.4565190535</v>
       </c>
     </row>
     <row r="16">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>137.3845178159509</v>
+        <v>182.494305351331</v>
       </c>
       <c r="AB16" t="n">
-        <v>187.9755582528646</v>
+        <v>249.6967596621124</v>
       </c>
       <c r="AC16" t="n">
-        <v>170.0354347986172</v>
+        <v>225.8660513716362</v>
       </c>
       <c r="AD16" t="n">
-        <v>137384.5178159509</v>
+        <v>182494.305351331</v>
       </c>
       <c r="AE16" t="n">
-        <v>187975.5582528646</v>
+        <v>249696.7596621124</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.81544613976312e-06</v>
+        <v>3.955964835268394e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH16" t="n">
-        <v>170035.4347986172</v>
+        <v>225866.0513716362</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.0288430143924</v>
+        <v>160.2574382370859</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.9145612590795</v>
+        <v>219.2712970550774</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.4160487459803</v>
+        <v>198.344352213402</v>
       </c>
       <c r="AD2" t="n">
-        <v>111028.8430143924</v>
+        <v>160257.4382370859</v>
       </c>
       <c r="AE2" t="n">
-        <v>151914.5612590795</v>
+        <v>219271.2970550774</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.240179894161308e-06</v>
+        <v>4.811159073321111e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>137416.0487459803</v>
+        <v>198344.352213402</v>
       </c>
     </row>
     <row r="3">
@@ -21142,28 +21142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.7057210927232</v>
+        <v>148.8717852025872</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.3677192400618</v>
+        <v>203.6929442737228</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.3031509477233</v>
+        <v>184.2527755571394</v>
       </c>
       <c r="AD3" t="n">
-        <v>107705.7210927232</v>
+        <v>148871.7852025872</v>
       </c>
       <c r="AE3" t="n">
-        <v>147367.7192400618</v>
+        <v>203692.9442737228</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.4057950042682e-06</v>
+        <v>5.05707154290518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>133303.1509477233</v>
+        <v>184252.7755571395</v>
       </c>
     </row>
     <row r="4">
@@ -21248,28 +21248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.5370377165217</v>
+        <v>148.5325096257934</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.1369192029576</v>
+        <v>203.2287324617717</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.0943781422304</v>
+        <v>183.8328674689954</v>
       </c>
       <c r="AD4" t="n">
-        <v>107537.0377165216</v>
+        <v>148532.5096257934</v>
       </c>
       <c r="AE4" t="n">
-        <v>147136.9192029576</v>
+        <v>203228.7324617717</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.41410436986467e-06</v>
+        <v>5.06940964788356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>133094.3781422304</v>
+        <v>183832.8674689954</v>
       </c>
     </row>
   </sheetData>
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.7961029653445</v>
+        <v>268.1048131826483</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.5793071603476</v>
+        <v>366.8328333460833</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.7057732840864</v>
+        <v>331.8228225846476</v>
       </c>
       <c r="AD2" t="n">
-        <v>205796.1029653445</v>
+        <v>268104.8131826483</v>
       </c>
       <c r="AE2" t="n">
-        <v>281579.3071603476</v>
+        <v>366832.8333460833</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.020188309700301e-06</v>
+        <v>2.860084378827859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>254705.7732840864</v>
+        <v>331822.8225846476</v>
       </c>
     </row>
     <row r="3">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.9890852705408</v>
+        <v>238.2977059792903</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.7960305575245</v>
+        <v>326.0494342735334</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.8147953605356</v>
+        <v>294.9317338798194</v>
       </c>
       <c r="AD3" t="n">
-        <v>175989.0852705408</v>
+        <v>238297.7059792903</v>
       </c>
       <c r="AE3" t="n">
-        <v>240796.0305575245</v>
+        <v>326049.4342735335</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.24847220647708e-06</v>
+        <v>3.183277619761957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>217814.7953605356</v>
+        <v>294931.7338798194</v>
       </c>
     </row>
     <row r="4">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.6742999754172</v>
+        <v>222.0695871122433</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.7876186111896</v>
+        <v>303.8454061055745</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.7615722034613</v>
+        <v>274.8468269966542</v>
       </c>
       <c r="AD4" t="n">
-        <v>168674.2999754172</v>
+        <v>222069.5871122433</v>
       </c>
       <c r="AE4" t="n">
-        <v>230787.6186111896</v>
+        <v>303845.4061055745</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422610554866149e-06</v>
+        <v>3.429814226072854e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>208761.5722034613</v>
+        <v>274846.8269966542</v>
       </c>
     </row>
     <row r="5">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.7063749807578</v>
+        <v>209.0163212630122</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.0443315290319</v>
+        <v>285.9853519012191</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.7116795375592</v>
+        <v>258.6913112988133</v>
       </c>
       <c r="AD5" t="n">
-        <v>155706.3749807578</v>
+        <v>209016.3212630122</v>
       </c>
       <c r="AE5" t="n">
-        <v>213044.3315290319</v>
+        <v>285985.3519012191</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.533318064544822e-06</v>
+        <v>3.586548535211531e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.49739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>192711.6795375592</v>
+        <v>258691.3112988133</v>
       </c>
     </row>
     <row r="6">
@@ -21969,28 +21969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.6878540039591</v>
+        <v>197.2550589148823</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.9142579608309</v>
+        <v>269.893073886241</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.9757743941114</v>
+        <v>244.1348577119255</v>
       </c>
       <c r="AD6" t="n">
-        <v>152687.8540039591</v>
+        <v>197255.0589148822</v>
       </c>
       <c r="AE6" t="n">
-        <v>208914.2579608309</v>
+        <v>269893.0738862411</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.617534529061905e-06</v>
+        <v>3.705778110716377e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>188975.7743941114</v>
+        <v>244134.8577119255</v>
       </c>
     </row>
     <row r="7">
@@ -22075,28 +22075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>140.7357980622907</v>
+        <v>194.1309956905657</v>
       </c>
       <c r="AB7" t="n">
-        <v>192.5609277339544</v>
+        <v>265.618592758791</v>
       </c>
       <c r="AC7" t="n">
-        <v>174.1831830520397</v>
+        <v>240.2683270640059</v>
       </c>
       <c r="AD7" t="n">
-        <v>140735.7980622907</v>
+        <v>194130.9956905657</v>
       </c>
       <c r="AE7" t="n">
-        <v>192560.9277339544</v>
+        <v>265618.5927587909</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.708194761320997e-06</v>
+        <v>3.83413045926729e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>174183.1830520397</v>
+        <v>240268.3270640059</v>
       </c>
     </row>
     <row r="8">
@@ -22181,28 +22181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.7718013257492</v>
+        <v>182.2536653821008</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.505456636713</v>
+        <v>249.3675054399256</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.5147604244283</v>
+        <v>225.5682207103036</v>
       </c>
       <c r="AD8" t="n">
-        <v>137771.8013257492</v>
+        <v>182253.6653821008</v>
       </c>
       <c r="AE8" t="n">
-        <v>188505.456636713</v>
+        <v>249367.5054399256</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.791449135515488e-06</v>
+        <v>3.951997954074286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>170514.7604244283</v>
+        <v>225568.2207103036</v>
       </c>
     </row>
     <row r="9">
@@ -22287,28 +22287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.9759252132686</v>
+        <v>182.4577892696202</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.7847479449273</v>
+        <v>249.6467967481399</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.7673965621745</v>
+        <v>225.8208568480498</v>
       </c>
       <c r="AD9" t="n">
-        <v>137975.9252132686</v>
+        <v>182457.7892696202</v>
       </c>
       <c r="AE9" t="n">
-        <v>188784.7479449273</v>
+        <v>249646.7967481399</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.786526812934787e-06</v>
+        <v>3.94502916910854e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>170767.3965621745</v>
+        <v>225820.8568480498</v>
       </c>
     </row>
     <row r="10">
@@ -22393,28 +22393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.1026794036259</v>
+        <v>180.5845434599775</v>
       </c>
       <c r="AB10" t="n">
-        <v>186.2216903864029</v>
+        <v>247.0837391896154</v>
       </c>
       <c r="AC10" t="n">
-        <v>168.4489536197609</v>
+        <v>223.5024139056362</v>
       </c>
       <c r="AD10" t="n">
-        <v>136102.6794036259</v>
+        <v>180584.5434599775</v>
       </c>
       <c r="AE10" t="n">
-        <v>186221.6903864029</v>
+        <v>247083.7391896154</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.841567329064443e-06</v>
+        <v>4.022952855543694e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>168448.953619761</v>
+        <v>223502.4139056362</v>
       </c>
     </row>
     <row r="11">
@@ -22499,28 +22499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>134.2253045657807</v>
+        <v>178.7071686221323</v>
       </c>
       <c r="AB11" t="n">
-        <v>183.6529833093319</v>
+        <v>244.5150321125445</v>
       </c>
       <c r="AC11" t="n">
-        <v>166.1254003409218</v>
+        <v>221.1788606267971</v>
       </c>
       <c r="AD11" t="n">
-        <v>134225.3045657807</v>
+        <v>178707.1686221323</v>
       </c>
       <c r="AE11" t="n">
-        <v>183652.9833093319</v>
+        <v>244515.0321125445</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.896540722613452e-06</v>
+        <v>4.100781513092952e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>166125.4003409218</v>
+        <v>221178.8606267971</v>
       </c>
     </row>
     <row r="12">
@@ -22605,28 +22605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>123.9972169138049</v>
+        <v>177.3070736875083</v>
       </c>
       <c r="AB12" t="n">
-        <v>169.6584625525248</v>
+        <v>242.5993604551637</v>
       </c>
       <c r="AC12" t="n">
-        <v>153.4664970037066</v>
+        <v>219.4460179837341</v>
       </c>
       <c r="AD12" t="n">
-        <v>123997.2169138049</v>
+        <v>177307.0736875083</v>
       </c>
       <c r="AE12" t="n">
-        <v>169658.4625525248</v>
+        <v>242599.3604551637</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.922830400033105e-06</v>
+        <v>4.138001160069093e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>153466.4970037066</v>
+        <v>219446.0179837341</v>
       </c>
     </row>
     <row r="13">
@@ -22711,28 +22711,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.1751622596522</v>
+        <v>177.4850190333556</v>
       </c>
       <c r="AB13" t="n">
-        <v>169.9019352251076</v>
+        <v>242.8428331277465</v>
       </c>
       <c r="AC13" t="n">
-        <v>153.6867329861342</v>
+        <v>219.6662539661617</v>
       </c>
       <c r="AD13" t="n">
-        <v>124175.1622596522</v>
+        <v>177485.0190333556</v>
       </c>
       <c r="AE13" t="n">
-        <v>169901.9352251076</v>
+        <v>242842.8331277465</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.915200800033018e-06</v>
+        <v>4.127199543372188e-06</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>153686.7329861342</v>
+        <v>219666.2539661617</v>
       </c>
     </row>
   </sheetData>
@@ -23008,28 +23008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.0091518099411</v>
+        <v>176.074847685249</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.4112806377202</v>
+        <v>240.9133744768989</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9565899944563</v>
+        <v>217.9209401409381</v>
       </c>
       <c r="AD2" t="n">
-        <v>126009.1518099411</v>
+        <v>176074.847685249</v>
       </c>
       <c r="AE2" t="n">
-        <v>172411.2806377202</v>
+        <v>240913.3744768989</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.000419291549081e-06</v>
+        <v>4.411943981531075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155956.5899944563</v>
+        <v>217920.9401409381</v>
       </c>
     </row>
     <row r="3">
@@ -23114,28 +23114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.098895061495</v>
+        <v>163.0792500822313</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.746897794175</v>
+        <v>223.132224511156</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.9780710573764</v>
+        <v>201.8367981719194</v>
       </c>
       <c r="AD3" t="n">
-        <v>113098.895061495</v>
+        <v>163079.2500822313</v>
       </c>
       <c r="AE3" t="n">
-        <v>154746.897794175</v>
+        <v>223132.224511156</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.20066662667034e-06</v>
+        <v>4.706396169428369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>139978.0710573764</v>
+        <v>201836.7981719194</v>
       </c>
     </row>
     <row r="4">
@@ -23220,28 +23220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.0631649723658</v>
+        <v>151.8556955805988</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.593277959271</v>
+        <v>207.7756620937512</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.2208668698723</v>
+        <v>187.9458445185562</v>
       </c>
       <c r="AD4" t="n">
-        <v>110063.1649723658</v>
+        <v>151855.6955805988</v>
       </c>
       <c r="AE4" t="n">
-        <v>150593.277959271</v>
+        <v>207775.6620937512</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.337244328275259e-06</v>
+        <v>4.907225823571829e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>136220.8668698723</v>
+        <v>187945.8445185561</v>
       </c>
     </row>
     <row r="5">
@@ -23326,28 +23326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.2231228928011</v>
+        <v>152.0156535010341</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.8121394428559</v>
+        <v>207.9945235773362</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.418840520638</v>
+        <v>188.1438181693218</v>
       </c>
       <c r="AD5" t="n">
-        <v>110223.1228928011</v>
+        <v>152015.6535010341</v>
       </c>
       <c r="AE5" t="n">
-        <v>150812.1394428559</v>
+        <v>207994.5235773362</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.320571269574962e-06</v>
+        <v>4.882709049801684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.557291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>136418.840520638</v>
+        <v>188143.8181693218</v>
       </c>
     </row>
   </sheetData>
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.7419292853166</v>
+        <v>200.233900535291</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.5152696788744</v>
+        <v>273.9688564084994</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.0920579762555</v>
+        <v>247.8216532706576</v>
       </c>
       <c r="AD2" t="n">
-        <v>148741.9292853166</v>
+        <v>200233.9005352909</v>
       </c>
       <c r="AE2" t="n">
-        <v>203515.2696788744</v>
+        <v>273968.8564084994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.589291071356865e-06</v>
+        <v>3.746115133793421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>184092.0579762555</v>
+        <v>247821.6532706576</v>
       </c>
     </row>
     <row r="3">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.1289419045984</v>
+        <v>186.0390074547947</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.8353327170531</v>
+        <v>254.546777461289</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.1450834192087</v>
+        <v>230.2531902791037</v>
       </c>
       <c r="AD3" t="n">
-        <v>143128.9419045984</v>
+        <v>186039.0074547947</v>
       </c>
       <c r="AE3" t="n">
-        <v>195835.3327170531</v>
+        <v>254546.777461289</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779727522925342e-06</v>
+        <v>4.021633356189619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>177145.0834192087</v>
+        <v>230253.1902791037</v>
       </c>
     </row>
     <row r="4">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.9420475311889</v>
+        <v>172.7667722268136</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.7924420706424</v>
+        <v>236.3871196926807</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.8241809327297</v>
+        <v>213.8266647606858</v>
       </c>
       <c r="AD4" t="n">
-        <v>129942.0475311889</v>
+        <v>172766.7722268136</v>
       </c>
       <c r="AE4" t="n">
-        <v>177792.4420706424</v>
+        <v>236387.1196926807</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.948188727920436e-06</v>
+        <v>4.265358396016252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>160824.1809327297</v>
+        <v>213826.6647606858</v>
       </c>
     </row>
     <row r="5">
@@ -23941,28 +23941,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.2941516301272</v>
+        <v>169.6154411709584</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.8552770299178</v>
+        <v>232.0753295151476</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.4080365555351</v>
+        <v>209.9263857860596</v>
       </c>
       <c r="AD5" t="n">
-        <v>118294.1516301272</v>
+        <v>169615.4411709584</v>
       </c>
       <c r="AE5" t="n">
-        <v>161855.2770299178</v>
+        <v>232075.3295151476</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.065005750657956e-06</v>
+        <v>4.434366052823409e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>146408.0365555351</v>
+        <v>209926.3857860596</v>
       </c>
     </row>
     <row r="6">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.3329266695508</v>
+        <v>160.2429027111961</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.5400866326053</v>
+        <v>219.2514089072928</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.2183660838604</v>
+        <v>198.3263621625288</v>
       </c>
       <c r="AD6" t="n">
-        <v>117332.9266695508</v>
+        <v>160242.9027111961</v>
       </c>
       <c r="AE6" t="n">
-        <v>160540.0866326053</v>
+        <v>219251.4089072928</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.095804035202451e-06</v>
+        <v>4.478924164154842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>145218.3660838604</v>
+        <v>198326.3621625288</v>
       </c>
     </row>
     <row r="7">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.3823822102907</v>
+        <v>158.292358251936</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.8712656514988</v>
+        <v>216.5825879261863</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.804253631476</v>
+        <v>195.9122497101444</v>
       </c>
       <c r="AD7" t="n">
-        <v>115382.3822102907</v>
+        <v>158292.358251936</v>
       </c>
       <c r="AE7" t="n">
-        <v>157871.2656514987</v>
+        <v>216582.5879261863</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.163564966820589e-06</v>
+        <v>4.576958817046002e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>142804.253631476</v>
+        <v>195912.2497101444</v>
       </c>
     </row>
     <row r="8">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>115.4155356467939</v>
+        <v>158.3255116884392</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.9166276459488</v>
+        <v>216.6279499206363</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.8452863408417</v>
+        <v>195.9532824195101</v>
       </c>
       <c r="AD8" t="n">
-        <v>115415.5356467939</v>
+        <v>158325.5116884392</v>
       </c>
       <c r="AE8" t="n">
-        <v>157916.6276459488</v>
+        <v>216627.9499206363</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.161306269099984e-06</v>
+        <v>4.573690995282963e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>142845.2863408417</v>
+        <v>195953.2824195101</v>
       </c>
     </row>
   </sheetData>
@@ -24556,28 +24556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.0949029911976</v>
+        <v>145.5739491571917</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.7954827323906</v>
+        <v>199.1806995061567</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.0718436786777</v>
+        <v>180.1711730972132</v>
       </c>
       <c r="AD2" t="n">
-        <v>105094.9029911976</v>
+        <v>145573.9491571917</v>
       </c>
       <c r="AE2" t="n">
-        <v>143795.4827323906</v>
+        <v>199180.6995061567</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.478619016164487e-06</v>
+        <v>5.223788654663125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>130071.8436786777</v>
+        <v>180171.1730972132</v>
       </c>
     </row>
     <row r="3">
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9024838746612</v>
+        <v>145.2109378400631</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.5322064082134</v>
+        <v>198.6840114071327</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.8336940773692</v>
+        <v>179.7218882132536</v>
       </c>
       <c r="AD3" t="n">
-        <v>104902.4838746612</v>
+        <v>145210.9378400631</v>
       </c>
       <c r="AE3" t="n">
-        <v>143532.2064082134</v>
+        <v>198684.0114071327</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.493993115311032e-06</v>
+        <v>5.246875702806136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>129833.6940773692</v>
+        <v>179721.8882132536</v>
       </c>
     </row>
   </sheetData>
@@ -24959,28 +24959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.7463079707863</v>
+        <v>140.037267931188</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.8455431789945</v>
+        <v>191.6051679916057</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.6897580054632</v>
+        <v>173.3186396780832</v>
       </c>
       <c r="AD2" t="n">
-        <v>100746.3079707864</v>
+        <v>140037.267931188</v>
       </c>
       <c r="AE2" t="n">
-        <v>137845.5431789946</v>
+        <v>191605.1679916057</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.586129523348712e-06</v>
+        <v>5.500214497504863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>124689.7580054632</v>
+        <v>173318.6396780832</v>
       </c>
     </row>
   </sheetData>
@@ -42765,28 +42765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.3434045143984</v>
+        <v>262.1299272025444</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.8044875317176</v>
+        <v>358.6577307547391</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.8182346866729</v>
+        <v>324.4279403107927</v>
       </c>
       <c r="AD2" t="n">
-        <v>191343.4045143984</v>
+        <v>262129.9272025443</v>
       </c>
       <c r="AE2" t="n">
-        <v>261804.4875317176</v>
+        <v>358657.7307547391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101842585353226e-06</v>
+        <v>2.983774113665551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.9453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>236818.2346866729</v>
+        <v>324427.9403107927</v>
       </c>
     </row>
     <row r="3">
@@ -42871,28 +42871,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.8627550741289</v>
+        <v>233.8649680671825</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.1502035419561</v>
+        <v>319.9843667035957</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.7077981513633</v>
+        <v>289.4455078463788</v>
       </c>
       <c r="AD3" t="n">
-        <v>171862.7550741289</v>
+        <v>233864.9680671825</v>
       </c>
       <c r="AE3" t="n">
-        <v>235150.2035419561</v>
+        <v>319984.3667035957</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.324520975229931e-06</v>
+        <v>3.299888184251469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>212707.7981513633</v>
+        <v>289445.5078463788</v>
       </c>
     </row>
     <row r="4">
@@ -42977,28 +42977,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.6789532572488</v>
+        <v>209.8968565552133</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.3750560340515</v>
+        <v>287.1901391344834</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.9154015635038</v>
+        <v>259.7811153294647</v>
       </c>
       <c r="AD4" t="n">
-        <v>156678.9532572489</v>
+        <v>209896.8565552133</v>
       </c>
       <c r="AE4" t="n">
-        <v>214375.0560340516</v>
+        <v>287190.1391344834</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.484210746934596e-06</v>
+        <v>3.526583661044021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.80989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>193915.4015635038</v>
+        <v>259781.1153294647</v>
       </c>
     </row>
     <row r="5">
@@ -43083,28 +43083,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.7014102617195</v>
+        <v>205.7487213590917</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.9328062307586</v>
+        <v>281.5144775563436</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.9925524431899</v>
+        <v>254.6471309264997</v>
       </c>
       <c r="AD5" t="n">
-        <v>152701.4102617195</v>
+        <v>205748.7213590917</v>
       </c>
       <c r="AE5" t="n">
-        <v>208932.8062307586</v>
+        <v>281514.4775563437</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.600144034867978e-06</v>
+        <v>3.691162467210719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>188992.5524431899</v>
+        <v>254647.1309264997</v>
       </c>
     </row>
     <row r="6">
@@ -43189,28 +43189,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.8423027170221</v>
+        <v>193.9748651604149</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.7066521012115</v>
+        <v>265.4049680794457</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.3149996902112</v>
+        <v>240.0750904242333</v>
       </c>
       <c r="AD6" t="n">
-        <v>140842.3027170221</v>
+        <v>193974.8651604149</v>
       </c>
       <c r="AE6" t="n">
-        <v>192706.6521012115</v>
+        <v>265404.9680794457</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.685922957505556e-06</v>
+        <v>3.812934159652241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>174314.9996902112</v>
+        <v>240075.0904242333</v>
       </c>
     </row>
     <row r="7">
@@ -43295,28 +43295,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.8335600459905</v>
+        <v>182.2671536488658</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.5899576423496</v>
+        <v>249.3859606815738</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.5911967726849</v>
+        <v>225.584914609591</v>
       </c>
       <c r="AD7" t="n">
-        <v>137833.5600459905</v>
+        <v>182267.1536488658</v>
       </c>
       <c r="AE7" t="n">
-        <v>188589.9576423496</v>
+        <v>249385.9606815738</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.781498107853123e-06</v>
+        <v>3.948612569398058e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>170591.1967726849</v>
+        <v>225584.914609591</v>
       </c>
     </row>
     <row r="8">
@@ -43401,28 +43401,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.054242178134</v>
+        <v>181.3172435804171</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.523660554471</v>
+        <v>248.0862518188483</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.6266655823156</v>
+        <v>224.4092481365708</v>
       </c>
       <c r="AD8" t="n">
-        <v>137054.242178134</v>
+        <v>181317.2435804171</v>
       </c>
       <c r="AE8" t="n">
-        <v>187523.660554471</v>
+        <v>248086.2518188483</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.806247657860657e-06</v>
+        <v>3.983747011507071e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>169626.6655823156</v>
+        <v>224409.2481365708</v>
       </c>
     </row>
     <row r="9">
@@ -43507,28 +43507,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.1146338262304</v>
+        <v>179.3776352285135</v>
       </c>
       <c r="AB9" t="n">
-        <v>184.8698028379166</v>
+        <v>245.4323941022939</v>
       </c>
       <c r="AC9" t="n">
-        <v>167.2260883215156</v>
+        <v>222.0086708757708</v>
       </c>
       <c r="AD9" t="n">
-        <v>135114.6338262304</v>
+        <v>179377.6352285135</v>
       </c>
       <c r="AE9" t="n">
-        <v>184869.8028379166</v>
+        <v>245432.3941022939</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.861714574756523e-06</v>
+        <v>4.062487803967945e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>167226.0883215157</v>
+        <v>222008.6708757708</v>
       </c>
     </row>
     <row r="10">
@@ -43613,28 +43613,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.3054183699764</v>
+        <v>177.5684197722595</v>
       </c>
       <c r="AB10" t="n">
-        <v>182.3943544337184</v>
+        <v>242.9569456980957</v>
       </c>
       <c r="AC10" t="n">
-        <v>164.9868932386997</v>
+        <v>219.7694757929548</v>
       </c>
       <c r="AD10" t="n">
-        <v>133305.4183699764</v>
+        <v>177568.4197722595</v>
       </c>
       <c r="AE10" t="n">
-        <v>182394.3544337184</v>
+        <v>242956.9456980957</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.915537527002208e-06</v>
+        <v>4.138894825478902e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>164986.8932386997</v>
+        <v>219769.4757929548</v>
       </c>
     </row>
     <row r="11">
@@ -43719,28 +43719,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.181216576973</v>
+        <v>176.2284381657942</v>
       </c>
       <c r="AB11" t="n">
-        <v>168.5419748922778</v>
+        <v>241.1235237483144</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.456565358753</v>
+        <v>218.1110330608362</v>
       </c>
       <c r="AD11" t="n">
-        <v>123181.216576973</v>
+        <v>176228.4381657942</v>
       </c>
       <c r="AE11" t="n">
-        <v>168541.9748922778</v>
+        <v>241123.5237483144</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.93846295184995e-06</v>
+        <v>4.17143974091746e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>152456.565358753</v>
+        <v>218111.0330608362</v>
       </c>
     </row>
     <row r="12">
@@ -43825,28 +43825,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.5019058060216</v>
+        <v>166.8501585543252</v>
       </c>
       <c r="AB12" t="n">
-        <v>167.6125119263864</v>
+        <v>228.291747843413</v>
       </c>
       <c r="AC12" t="n">
-        <v>151.6158090338165</v>
+        <v>206.5039038387839</v>
       </c>
       <c r="AD12" t="n">
-        <v>122501.9058060216</v>
+        <v>166850.1585543253</v>
       </c>
       <c r="AE12" t="n">
-        <v>167612.5119263864</v>
+        <v>228291.747843413</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.96370794325891e-06</v>
+        <v>4.207277511257955e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>151615.8090338165</v>
+        <v>206503.9038387839</v>
       </c>
     </row>
   </sheetData>
@@ -44122,28 +44122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.04239606275421</v>
+        <v>143.8812748941588</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.1459316182524</v>
+        <v>196.8647079039582</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.3432321796397</v>
+        <v>178.0762164830131</v>
       </c>
       <c r="AD2" t="n">
-        <v>98042.39606275421</v>
+        <v>143881.2748941588</v>
       </c>
       <c r="AE2" t="n">
-        <v>134145.9316182524</v>
+        <v>196864.7079039582</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.597368403989678e-06</v>
+        <v>5.620817171827084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>121343.2321796397</v>
+        <v>178076.2164830131</v>
       </c>
     </row>
   </sheetData>
@@ -44419,28 +44419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.6503250242843</v>
+        <v>152.2302697786797</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.6601680122074</v>
+        <v>208.2881710366127</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.472250223019</v>
+        <v>188.4094403272219</v>
       </c>
       <c r="AD2" t="n">
-        <v>108650.3250242843</v>
+        <v>152230.2697786797</v>
       </c>
       <c r="AE2" t="n">
-        <v>148660.1680122074</v>
+        <v>208288.1710366127</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.364091850817791e-06</v>
+        <v>5.482380198819242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134472.250223019</v>
+        <v>188409.4403272219</v>
       </c>
     </row>
   </sheetData>
@@ -44716,28 +44716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.8639908224353</v>
+        <v>164.2647176725201</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.107932619907</v>
+        <v>224.7542335673274</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.0639474716749</v>
+        <v>203.3040049602743</v>
       </c>
       <c r="AD2" t="n">
-        <v>122863.9908224353</v>
+        <v>164264.7176725201</v>
       </c>
       <c r="AE2" t="n">
-        <v>168107.932619907</v>
+        <v>224754.2335673274</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.107503927326426e-06</v>
+        <v>4.59096665297478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>152063.9474716749</v>
+        <v>203304.0049602743</v>
       </c>
     </row>
     <row r="3">
@@ -44822,28 +44822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0598855918656</v>
+        <v>151.545863787971</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.5887909661945</v>
+        <v>207.3517365662641</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.2168081091174</v>
+        <v>187.5623778484291</v>
       </c>
       <c r="AD3" t="n">
-        <v>110059.8855918655</v>
+        <v>151545.863787971</v>
       </c>
       <c r="AE3" t="n">
-        <v>150588.7909661945</v>
+        <v>207351.7365662641</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.31881015684278e-06</v>
+        <v>4.903146420390248e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>136216.8081091174</v>
+        <v>187562.3778484291</v>
       </c>
     </row>
     <row r="4">
@@ -44928,28 +44928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.8910766116412</v>
+        <v>150.3770548077466</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.9895749552394</v>
+        <v>205.752520555309</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.7702190297336</v>
+        <v>186.1157887690452</v>
       </c>
       <c r="AD4" t="n">
-        <v>108891.0766116412</v>
+        <v>150377.0548077466</v>
       </c>
       <c r="AE4" t="n">
-        <v>148989.5749552394</v>
+        <v>205752.520555309</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.370042623768509e-06</v>
+        <v>4.978836283607257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>134770.2190297336</v>
+        <v>186115.7887690452</v>
       </c>
     </row>
     <row r="5">
@@ -45034,28 +45034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.9327273313925</v>
+        <v>150.4187055274979</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.0465633075031</v>
+        <v>205.8095089075728</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.821768493641</v>
+        <v>186.1673382329526</v>
       </c>
       <c r="AD5" t="n">
-        <v>108932.7273313925</v>
+        <v>150418.7055274979</v>
       </c>
       <c r="AE5" t="n">
-        <v>149046.5633075031</v>
+        <v>205809.5089075728</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.368639331786401e-06</v>
+        <v>4.976763086969405e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>134821.768493641</v>
+        <v>186167.3382329526</v>
       </c>
     </row>
   </sheetData>
@@ -45331,28 +45331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.2465380983542</v>
+        <v>196.4204351425934</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.7327212510991</v>
+        <v>268.7511048199938</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.7659492580766</v>
+        <v>243.1018765705969</v>
       </c>
       <c r="AD2" t="n">
-        <v>145246.5380983542</v>
+        <v>196420.4351425934</v>
       </c>
       <c r="AE2" t="n">
-        <v>198732.7212510991</v>
+        <v>268751.1048199938</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.679224043426937e-06</v>
+        <v>3.890686141792347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>179765.9492580766</v>
+        <v>243101.8765705969</v>
       </c>
     </row>
     <row r="3">
@@ -45437,28 +45437,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.9585220451542</v>
+        <v>182.0470782348218</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.1832273443397</v>
+        <v>249.0848437910369</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.0822316118852</v>
+        <v>225.3125358924666</v>
       </c>
       <c r="AD3" t="n">
-        <v>130958.5220451542</v>
+        <v>182047.0782348218</v>
       </c>
       <c r="AE3" t="n">
-        <v>179183.2273443397</v>
+        <v>249084.8437910369</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.883675783436617e-06</v>
+        <v>4.187584623825804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>162082.2316118852</v>
+        <v>225312.5358924666</v>
       </c>
     </row>
     <row r="4">
@@ -45543,28 +45543,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.2065906936855</v>
+        <v>169.7662535511976</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.0496693457337</v>
+        <v>232.2816776671634</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.4386131836705</v>
+        <v>210.1130403600585</v>
       </c>
       <c r="AD4" t="n">
-        <v>127206.5906936855</v>
+        <v>169766.2535511976</v>
       </c>
       <c r="AE4" t="n">
-        <v>174049.6693457337</v>
+        <v>232281.6776671634</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.029529728386667e-06</v>
+        <v>4.399389203489496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>157438.6131836705</v>
+        <v>210113.0403600585</v>
       </c>
     </row>
     <row r="5">
@@ -45649,28 +45649,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.5710139685585</v>
+        <v>157.2159281720912</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.7611158281208</v>
+        <v>215.1097688021998</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.8000549491358</v>
+        <v>194.5799943762361</v>
       </c>
       <c r="AD5" t="n">
-        <v>114571.0139685585</v>
+        <v>157215.9281720912</v>
       </c>
       <c r="AE5" t="n">
-        <v>156761.1158281208</v>
+        <v>215109.7688021998</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.193579830749969e-06</v>
+        <v>4.637617679152218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.674479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>141800.0549491358</v>
+        <v>194579.9943762361</v>
       </c>
     </row>
     <row r="6">
@@ -45755,28 +45755,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.2624635270021</v>
+        <v>156.9073777305347</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.3389435016987</v>
+        <v>214.6875964757776</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.4181741570247</v>
+        <v>194.198113584125</v>
       </c>
       <c r="AD6" t="n">
-        <v>114262.4635270021</v>
+        <v>156907.3777305347</v>
       </c>
       <c r="AE6" t="n">
-        <v>156338.9435016987</v>
+        <v>214687.5964757777</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.195596354061738e-06</v>
+        <v>4.640546011824864e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>141418.1741570247</v>
+        <v>194198.113584125</v>
       </c>
     </row>
     <row r="7">
@@ -45861,28 +45861,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.0629291153226</v>
+        <v>156.7078433188552</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.0659317168019</v>
+        <v>214.4145846908809</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.171218233704</v>
+        <v>193.9511576608043</v>
       </c>
       <c r="AD7" t="n">
-        <v>114062.9291153226</v>
+        <v>156707.8433188552</v>
       </c>
       <c r="AE7" t="n">
-        <v>156065.9317168019</v>
+        <v>214414.5846908809</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.198585553323889e-06</v>
+        <v>4.6448868343749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>141171.218233704</v>
+        <v>193951.1576608043</v>
       </c>
     </row>
   </sheetData>
@@ -46158,28 +46158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.6550606914408</v>
+        <v>230.6915792507</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.1295386909615</v>
+        <v>315.6423961248528</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.9754213142168</v>
+        <v>285.5179288456757</v>
       </c>
       <c r="AD2" t="n">
-        <v>169655.0606914408</v>
+        <v>230691.5792507</v>
       </c>
       <c r="AE2" t="n">
-        <v>232129.5386909615</v>
+        <v>315642.3961248528</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320909160786649e-06</v>
+        <v>3.324020841642217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>209975.4213142169</v>
+        <v>285517.9288456757</v>
       </c>
     </row>
     <row r="3">
@@ -46264,28 +46264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.2393307180878</v>
+        <v>204.6294959299429</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.3005686136513</v>
+        <v>279.9831039474419</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.4206546969081</v>
+        <v>253.2619094655346</v>
       </c>
       <c r="AD3" t="n">
-        <v>152239.3307180878</v>
+        <v>204629.4959299429</v>
       </c>
       <c r="AE3" t="n">
-        <v>208300.5686136513</v>
+        <v>279983.1039474419</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.551569943226185e-06</v>
+        <v>3.654374679324795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.73177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>188420.6546969081</v>
+        <v>253261.9094655346</v>
       </c>
     </row>
     <row r="4">
@@ -46370,28 +46370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.4915322024259</v>
+        <v>191.1500927208561</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.8044212264383</v>
+        <v>261.5399898074788</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.5444904989284</v>
+        <v>236.5789802540105</v>
       </c>
       <c r="AD4" t="n">
-        <v>147491.5322024259</v>
+        <v>191150.0927208561</v>
       </c>
       <c r="AE4" t="n">
-        <v>201804.4212264383</v>
+        <v>261539.9898074788</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.702078862868251e-06</v>
+        <v>3.869934510013606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>182544.4904989284</v>
+        <v>236578.9802540105</v>
       </c>
     </row>
     <row r="5">
@@ -46476,28 +46476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.4451682246475</v>
+        <v>187.7499925819309</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.3220545839791</v>
+        <v>256.887822795572</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.6351777956734</v>
+        <v>232.3708095323612</v>
       </c>
       <c r="AD5" t="n">
-        <v>135445.1682246475</v>
+        <v>187749.9925819309</v>
       </c>
       <c r="AE5" t="n">
-        <v>185322.0545839791</v>
+        <v>256887.822795572</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.807476493121723e-06</v>
+        <v>4.020885665509711e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>167635.1777956734</v>
+        <v>232370.8095323612</v>
       </c>
     </row>
     <row r="6">
@@ -46582,28 +46582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.6199371537316</v>
+        <v>176.1931568175902</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.4564487923558</v>
+        <v>241.0752502511986</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.1384999953896</v>
+        <v>218.0673667185328</v>
       </c>
       <c r="AD6" t="n">
-        <v>132619.9371537316</v>
+        <v>176193.1568175902</v>
       </c>
       <c r="AE6" t="n">
-        <v>181456.4487923558</v>
+        <v>241075.2502511986</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.902987347413373e-06</v>
+        <v>4.157676917676122e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>164138.4999953896</v>
+        <v>218067.3667185328</v>
       </c>
     </row>
     <row r="7">
@@ -46688,28 +46688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.4875174044255</v>
+        <v>175.0607370682841</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.9070221325225</v>
+        <v>239.5258235913654</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.7369484413364</v>
+        <v>216.6658151644796</v>
       </c>
       <c r="AD7" t="n">
-        <v>131487.5174044255</v>
+        <v>175060.7370682841</v>
       </c>
       <c r="AE7" t="n">
-        <v>179907.0221325225</v>
+        <v>239525.8235913654</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.944810708982105e-06</v>
+        <v>4.217576601761509e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>162736.9484413364</v>
+        <v>216665.8151644796</v>
       </c>
     </row>
     <row r="8">
@@ -46794,28 +46794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.8928018762082</v>
+        <v>163.5512728860874</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.0426208240759</v>
+        <v>223.778066935568</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.3866233279358</v>
+        <v>202.4210023017912</v>
       </c>
       <c r="AD8" t="n">
-        <v>119892.8018762082</v>
+        <v>163551.2728860874</v>
       </c>
       <c r="AE8" t="n">
-        <v>164042.6208240759</v>
+        <v>223778.066935568</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.034412490198898e-06</v>
+        <v>4.345904841937845e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>148386.6233279358</v>
+        <v>202421.0023017912</v>
       </c>
     </row>
     <row r="9">
@@ -46900,28 +46900,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>118.9848581895638</v>
+        <v>162.6433291994429</v>
       </c>
       <c r="AB9" t="n">
-        <v>162.8003322163611</v>
+        <v>222.5357783278532</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.2628970013779</v>
+        <v>201.2972759752334</v>
       </c>
       <c r="AD9" t="n">
-        <v>118984.8581895637</v>
+        <v>162643.3291994429</v>
       </c>
       <c r="AE9" t="n">
-        <v>162800.3322163611</v>
+        <v>222535.7783278532</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.058186737511745e-06</v>
+        <v>4.379954469944603e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>147262.8970013779</v>
+        <v>201297.2759752334</v>
       </c>
     </row>
     <row r="10">
@@ -47006,28 +47006,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>119.1014991784363</v>
+        <v>162.7599701883154</v>
       </c>
       <c r="AB10" t="n">
-        <v>162.9599255631737</v>
+        <v>222.6953716746658</v>
       </c>
       <c r="AC10" t="n">
-        <v>147.4072589831614</v>
+        <v>201.4416379570168</v>
       </c>
       <c r="AD10" t="n">
-        <v>119101.4991784363</v>
+        <v>162759.9701883154</v>
       </c>
       <c r="AE10" t="n">
-        <v>162959.9255631737</v>
+        <v>222695.3716746657</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.054025094606885e-06</v>
+        <v>4.373994138543032e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>147407.2589831614</v>
+        <v>201441.6379570168</v>
       </c>
     </row>
   </sheetData>
